--- a/DeliverooAgent/report/agent_tests.xlsx
+++ b/DeliverooAgent/report/agent_tests.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucaz\Desktop\ASA\Github\DeliverooAgent\NoCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucaz\Desktop\ASA\Github\DeliverooAgent\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE92A32-27E1-41D1-9FA5-E6EA2D96BCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A699D9-D87C-4CF4-B58E-D3746FB40DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{065E83BE-B1A0-4502-AE30-4FB66E0EBDE0}"/>
   </bookViews>
@@ -1973,7 +1973,7 @@
   <dimension ref="B1:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2079,7 +2079,9 @@
       <c r="K3" s="76">
         <v>602</v>
       </c>
-      <c r="L3" s="76"/>
+      <c r="L3" s="76">
+        <v>583</v>
+      </c>
       <c r="M3" s="76"/>
       <c r="N3" s="76"/>
       <c r="O3" s="76"/>

--- a/DeliverooAgent/report/agent_tests.xlsx
+++ b/DeliverooAgent/report/agent_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucaz\Desktop\ASA\Github\DeliverooAgent\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A699D9-D87C-4CF4-B58E-D3746FB40DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF04FCC2-9336-4627-832D-2742F8E6E48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{065E83BE-B1A0-4502-AE30-4FB66E0EBDE0}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{065E83BE-B1A0-4502-AE30-4FB66E0EBDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Validation params" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="78">
   <si>
     <t>PARCELS_GENERATION_INTERVAL</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>Single agent performance (300ms - 5 minutes)</t>
+  </si>
+  <si>
+    <t>Adj. Cost window</t>
+  </si>
+  <si>
+    <t>Changing risk</t>
   </si>
 </sst>
 </file>
@@ -1972,8 +1978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0D301A-73A6-4526-833A-44D4BEDE7EE1}">
   <dimension ref="B1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,10 +2028,10 @@
         <v>44</v>
       </c>
       <c r="F2" s="66" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G2" s="66" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="H2" s="89" t="s">
         <v>35</v>
@@ -2082,13 +2088,27 @@
       <c r="L3" s="76">
         <v>583</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="77"/>
+      <c r="M3" s="76">
+        <v>699</v>
+      </c>
+      <c r="N3" s="76">
+        <v>3054</v>
+      </c>
+      <c r="O3" s="76">
+        <v>2453</v>
+      </c>
+      <c r="P3" s="76">
+        <v>2483</v>
+      </c>
+      <c r="Q3" s="76">
+        <v>755</v>
+      </c>
+      <c r="R3" s="76">
+        <v>591</v>
+      </c>
+      <c r="S3" s="77">
+        <v>754</v>
+      </c>
     </row>
     <row r="4" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="81" t="s">
@@ -2109,12 +2129,24 @@
       <c r="G4" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
+      <c r="H4" s="75">
+        <v>350</v>
+      </c>
+      <c r="I4" s="75">
+        <v>320</v>
+      </c>
+      <c r="J4" s="76">
+        <v>440</v>
+      </c>
+      <c r="K4" s="76">
+        <v>633</v>
+      </c>
+      <c r="L4" s="76">
+        <v>657</v>
+      </c>
+      <c r="M4" s="76">
+        <v>587</v>
+      </c>
       <c r="N4" s="76"/>
       <c r="O4" s="76"/>
       <c r="P4" s="76"/>

--- a/DeliverooAgent/report/agent_tests.xlsx
+++ b/DeliverooAgent/report/agent_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucaz\Desktop\ASA\Github\DeliverooAgent\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF04FCC2-9336-4627-832D-2742F8E6E48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8A9304-55BB-4B49-97F6-F8CA91C3E0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{065E83BE-B1A0-4502-AE30-4FB66E0EBDE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{065E83BE-B1A0-4502-AE30-4FB66E0EBDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Validation params" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="76">
   <si>
     <t>PARCELS_GENERATION_INTERVAL</t>
   </si>
@@ -165,12 +165,6 @@
     <t>Challenge_33</t>
   </si>
   <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>moveType</t>
-  </si>
-  <si>
     <t>fastPick</t>
   </si>
   <si>
@@ -180,9 +174,6 @@
     <t>adjustMovementCostWindow</t>
   </si>
   <si>
-    <t>300s</t>
-  </si>
-  <si>
     <t>BFS</t>
   </si>
   <si>
@@ -204,15 +195,6 @@
     <t>Test 4</t>
   </si>
   <si>
-    <t>10000ms</t>
-  </si>
-  <si>
-    <t>100ms</t>
-  </si>
-  <si>
-    <t>300000ms</t>
-  </si>
-  <si>
     <t>Test 5</t>
   </si>
   <si>
@@ -261,9 +243,6 @@
     <t>Test 20</t>
   </si>
   <si>
-    <t>Multi-agent performance</t>
-  </si>
-  <si>
     <t>Single agent performance (300ms - 5 minutes)</t>
   </si>
   <si>
@@ -271,6 +250,21 @@
   </si>
   <si>
     <t>Changing risk</t>
+  </si>
+  <si>
+    <t>Multi-agent performance (300ms - 5 minutes)</t>
+  </si>
+  <si>
+    <t>1000ms</t>
+  </si>
+  <si>
+    <t>20000ms</t>
+  </si>
+  <si>
+    <t>Test 21</t>
+  </si>
+  <si>
+    <t>Test 22</t>
   </si>
 </sst>
 </file>
@@ -280,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +349,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -424,7 +426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -815,11 +817,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1005,11 +1081,9 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1019,7 +1093,6 @@
     <xf numFmtId="164" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1032,10 +1105,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1065,6 +1134,79 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1976,1204 +2118,1018 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0D301A-73A6-4526-833A-44D4BEDE7EE1}">
-  <dimension ref="B1:S47"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
-    <col min="7" max="7" width="37" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B1" s="91" t="s">
+    <row r="1" spans="1:13" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="102"/>
+      <c r="B1" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="98"/>
+      <c r="C2" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="101"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="90" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="93">
+        <v>340</v>
+      </c>
+      <c r="G3" s="93">
+        <v>400</v>
+      </c>
+      <c r="H3" s="93">
+        <v>602</v>
+      </c>
+      <c r="I3" s="93">
+        <v>699</v>
+      </c>
+      <c r="J3" s="93">
+        <v>3054</v>
+      </c>
+      <c r="K3" s="93">
+        <v>2483</v>
+      </c>
+      <c r="L3" s="93">
+        <v>755</v>
+      </c>
+      <c r="M3" s="94">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="107"/>
+      <c r="B4" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="72">
+        <v>350</v>
+      </c>
+      <c r="G4" s="72">
+        <v>440</v>
+      </c>
+      <c r="H4" s="72">
+        <v>633</v>
+      </c>
+      <c r="I4" s="72">
+        <v>657</v>
+      </c>
+      <c r="J4" s="72">
+        <v>3549</v>
+      </c>
+      <c r="K4" s="72">
+        <v>2688</v>
+      </c>
+      <c r="L4" s="72">
+        <v>692</v>
+      </c>
+      <c r="M4" s="87">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="107"/>
+      <c r="B5" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="67">
+        <v>0.75</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="72">
+        <v>390</v>
+      </c>
+      <c r="G5" s="72">
+        <v>330</v>
+      </c>
+      <c r="H5" s="72">
+        <v>589</v>
+      </c>
+      <c r="I5" s="72">
+        <v>525</v>
+      </c>
+      <c r="J5" s="72">
+        <v>2785</v>
+      </c>
+      <c r="K5" s="72">
+        <v>2331</v>
+      </c>
+      <c r="L5" s="72">
+        <v>882</v>
+      </c>
+      <c r="M5" s="87">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="107"/>
+      <c r="B6" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="67">
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="72">
+        <v>240</v>
+      </c>
+      <c r="G6" s="72">
+        <v>380</v>
+      </c>
+      <c r="H6" s="72">
+        <v>563</v>
+      </c>
+      <c r="I6" s="72">
+        <v>570</v>
+      </c>
+      <c r="J6" s="72">
+        <v>2933</v>
+      </c>
+      <c r="K6" s="72">
+        <v>2429</v>
+      </c>
+      <c r="L6" s="72">
+        <v>805</v>
+      </c>
+      <c r="M6" s="87"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="107"/>
+      <c r="B7" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="67">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="87"/>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="107"/>
+      <c r="B8" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="67">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="87"/>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="107"/>
+      <c r="B9" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="67">
+        <v>0</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="87"/>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="107"/>
+      <c r="B10" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="67">
+        <v>0</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="87"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="107"/>
+      <c r="B11" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="67">
+        <v>1</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="87"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="107"/>
+      <c r="B12" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="67">
+        <v>1</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="87"/>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="107"/>
+      <c r="B13" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="87"/>
+    </row>
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="108"/>
+      <c r="B14" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="89"/>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="90" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="94"/>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="110"/>
+      <c r="B16" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="87"/>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="110"/>
+      <c r="B17" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="67">
+        <v>0.75</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="87"/>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="110"/>
+      <c r="B18" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="67">
+        <v>0.75</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="87"/>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="110"/>
+      <c r="B19" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="67">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="87"/>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="110"/>
+      <c r="B20" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="67">
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="87"/>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="110"/>
+      <c r="B21" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="67">
+        <v>0</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="87"/>
+    </row>
+    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="110"/>
+      <c r="B22" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="67">
+        <v>0</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="87"/>
+    </row>
+    <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="110"/>
+      <c r="B23" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="67">
+        <v>1</v>
+      </c>
+      <c r="E23" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="87"/>
+    </row>
+    <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="110"/>
+      <c r="B24" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="67">
+        <v>1</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="87"/>
+    </row>
+    <row r="25" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="110"/>
+      <c r="B25" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="87"/>
+    </row>
+    <row r="26" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="111"/>
+      <c r="B26" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="93"/>
-    </row>
-    <row r="2" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="80"/>
-      <c r="C2" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="89"/>
-      <c r="S2" s="90"/>
-    </row>
-    <row r="3" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="69">
+      <c r="C26" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="70">
         <v>0.5</v>
       </c>
-      <c r="G3" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="75">
-        <v>430</v>
-      </c>
-      <c r="I3" s="75">
-        <v>450</v>
-      </c>
-      <c r="J3" s="76">
-        <v>390</v>
-      </c>
-      <c r="K3" s="76">
-        <v>602</v>
-      </c>
-      <c r="L3" s="76">
-        <v>583</v>
-      </c>
-      <c r="M3" s="76">
-        <v>699</v>
-      </c>
-      <c r="N3" s="76">
-        <v>3054</v>
-      </c>
-      <c r="O3" s="76">
-        <v>2453</v>
-      </c>
-      <c r="P3" s="76">
-        <v>2483</v>
-      </c>
-      <c r="Q3" s="76">
-        <v>755</v>
-      </c>
-      <c r="R3" s="76">
-        <v>591</v>
-      </c>
-      <c r="S3" s="77">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="69">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="75">
-        <v>350</v>
-      </c>
-      <c r="I4" s="75">
-        <v>320</v>
-      </c>
-      <c r="J4" s="76">
-        <v>440</v>
-      </c>
-      <c r="K4" s="76">
-        <v>633</v>
-      </c>
-      <c r="L4" s="76">
-        <v>657</v>
-      </c>
-      <c r="M4" s="76">
-        <v>587</v>
-      </c>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="77"/>
-    </row>
-    <row r="5" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
-    </row>
-    <row r="6" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="G6" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="77"/>
-    </row>
-    <row r="7" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="69">
-        <v>0</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="77"/>
-    </row>
-    <row r="8" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="69">
-        <v>1</v>
-      </c>
-      <c r="G8" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="77"/>
-    </row>
-    <row r="9" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="69">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="77"/>
-    </row>
-    <row r="10" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="69">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="77"/>
-    </row>
-    <row r="11" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="69">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="77"/>
-    </row>
-    <row r="12" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="69">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="77"/>
-    </row>
-    <row r="13" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="69">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="77"/>
-    </row>
-    <row r="14" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="69">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="77"/>
-    </row>
-    <row r="15" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="G15" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="77"/>
-    </row>
-    <row r="16" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="G16" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="77"/>
-    </row>
-    <row r="17" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="69">
-        <v>0</v>
-      </c>
-      <c r="G17" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="77"/>
-    </row>
-    <row r="18" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="69">
-        <v>1</v>
-      </c>
-      <c r="G18" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="77"/>
-    </row>
-    <row r="19" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="69">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="77"/>
-    </row>
-    <row r="20" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="81" t="s">
+      <c r="E26" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="89"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="B28" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="69">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="77"/>
-    </row>
-    <row r="21" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="69">
-        <v>0.5</v>
-      </c>
-      <c r="G21" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="77"/>
-    </row>
-    <row r="22" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="72" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="73">
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="79"/>
-    </row>
-    <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:19" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B26" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="93"/>
-    </row>
-    <row r="27" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="80"/>
-      <c r="C27" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="O27" s="89"/>
-      <c r="P27" s="90"/>
-    </row>
-    <row r="28" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
       <c r="H28" s="85"/>
       <c r="I28" s="85"/>
       <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="86"/>
-    </row>
-    <row r="29" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="81" t="s">
+      <c r="K28" s="86"/>
+    </row>
+    <row r="29" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="73"/>
+      <c r="C29" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="83"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="79"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="79"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="79"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="79"/>
+    </row>
+    <row r="34" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="86"/>
-    </row>
-    <row r="30" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="81" t="s">
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="79"/>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="86"/>
-    </row>
-    <row r="31" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="81" t="s">
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="79"/>
+    </row>
+    <row r="36" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="85"/>
-      <c r="O31" s="85"/>
-      <c r="P31" s="86"/>
-    </row>
-    <row r="32" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="81" t="s">
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="79"/>
+    </row>
+    <row r="37" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="79"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="79"/>
+    </row>
+    <row r="39" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="79"/>
+    </row>
+    <row r="40" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="86"/>
-    </row>
-    <row r="33" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="81" t="s">
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="79"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="86"/>
-    </row>
-    <row r="34" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="81" t="s">
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="79"/>
+    </row>
+    <row r="42" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="86"/>
-    </row>
-    <row r="35" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="81" t="s">
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="79"/>
+    </row>
+    <row r="43" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="86"/>
-    </row>
-    <row r="36" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="81" t="s">
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="79"/>
+    </row>
+    <row r="44" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="86"/>
-    </row>
-    <row r="37" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="81" t="s">
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="79"/>
+    </row>
+    <row r="45" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="85"/>
-      <c r="P37" s="86"/>
-    </row>
-    <row r="38" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="81" t="s">
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="78"/>
+      <c r="K45" s="79"/>
+    </row>
+    <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="86"/>
-    </row>
-    <row r="39" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="81" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="78"/>
+      <c r="K46" s="79"/>
+    </row>
+    <row r="47" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="85"/>
-      <c r="P39" s="86"/>
-    </row>
-    <row r="40" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="81" t="s">
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="79"/>
+    </row>
+    <row r="48" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="85"/>
-      <c r="P40" s="86"/>
-    </row>
-    <row r="41" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="81" t="s">
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="79"/>
+    </row>
+    <row r="49" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="86"/>
-    </row>
-    <row r="42" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="86"/>
-    </row>
-    <row r="43" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="85"/>
-      <c r="P43" s="86"/>
-    </row>
-    <row r="44" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="85"/>
-      <c r="P44" s="86"/>
-    </row>
-    <row r="45" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="85"/>
-      <c r="P45" s="86"/>
-    </row>
-    <row r="46" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="86"/>
-    </row>
-    <row r="47" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="87"/>
-      <c r="M47" s="87"/>
-      <c r="N47" s="87"/>
-      <c r="O47" s="87"/>
-      <c r="P47" s="88"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="B26:P26"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+  <mergeCells count="11">
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DeliverooAgent/report/agent_tests.xlsx
+++ b/DeliverooAgent/report/agent_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucaz\Desktop\ASA\Github\DeliverooAgent\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8A9304-55BB-4B49-97F6-F8CA91C3E0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E99B4F4-6058-45C4-825A-67A36C32B8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{065E83BE-B1A0-4502-AE30-4FB66E0EBDE0}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{065E83BE-B1A0-4502-AE30-4FB66E0EBDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Validation params" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="84">
   <si>
     <t>PARCELS_GENERATION_INTERVAL</t>
   </si>
@@ -265,6 +265,30 @@
   </si>
   <si>
     <t>Test 22</t>
+  </si>
+  <si>
+    <t>LookAhead (only for PDDL)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Test 23</t>
+  </si>
+  <si>
+    <t>Test 24</t>
+  </si>
+  <si>
+    <t>Test 25</t>
+  </si>
+  <si>
+    <t>Test 26</t>
+  </si>
+  <si>
+    <t>Test 27</t>
+  </si>
+  <si>
+    <t>Test 28</t>
   </si>
 </sst>
 </file>
@@ -426,7 +450,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -891,11 +915,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1120,21 +1194,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1174,21 +1233,15 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1199,14 +1252,80 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2118,10 +2237,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0D301A-73A6-4526-833A-44D4BEDE7EE1}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,100 +2249,108 @@
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37" style="117" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="102"/>
-      <c r="B1" s="103" t="s">
+    <row r="1" spans="1:14" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="95"/>
+      <c r="B1" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
       <c r="M1" s="105"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="98"/>
-      <c r="C2" s="99" t="s">
+      <c r="N1" s="106"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="93"/>
+      <c r="C2" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="102"/>
+      <c r="I2" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100" t="s">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100" t="s">
+      <c r="L2" s="102"/>
+      <c r="M2" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="101"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
+      <c r="N2" s="103"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="90" t="b">
+      <c r="C3" s="122" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="91">
+      <c r="D3" s="123">
         <v>0.5</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="E3" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="93">
+      <c r="F3" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="126">
         <v>340</v>
       </c>
-      <c r="G3" s="93">
+      <c r="H3" s="126">
         <v>400</v>
       </c>
-      <c r="H3" s="93">
+      <c r="I3" s="126">
         <v>602</v>
       </c>
-      <c r="I3" s="93">
+      <c r="J3" s="126">
         <v>699</v>
       </c>
-      <c r="J3" s="93">
+      <c r="K3" s="126">
         <v>3054</v>
       </c>
-      <c r="K3" s="93">
+      <c r="L3" s="126">
         <v>2483</v>
       </c>
-      <c r="L3" s="93">
+      <c r="M3" s="126">
         <v>755</v>
       </c>
-      <c r="M3" s="94">
+      <c r="N3" s="127">
         <v>754</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="107"/>
-      <c r="B4" s="95" t="s">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="100"/>
+      <c r="B4" s="90" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="66" t="b">
@@ -2235,34 +2362,37 @@
       <c r="E4" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="72">
+      <c r="F4" s="114" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="72">
         <v>350</v>
       </c>
-      <c r="G4" s="72">
+      <c r="H4" s="72">
         <v>440</v>
       </c>
-      <c r="H4" s="72">
+      <c r="I4" s="72">
         <v>633</v>
       </c>
-      <c r="I4" s="72">
+      <c r="J4" s="72">
         <v>657</v>
       </c>
-      <c r="J4" s="72">
+      <c r="K4" s="72">
         <v>3549</v>
       </c>
-      <c r="K4" s="72">
+      <c r="L4" s="72">
         <v>2688</v>
       </c>
-      <c r="L4" s="72">
+      <c r="M4" s="72">
         <v>692</v>
       </c>
-      <c r="M4" s="87">
+      <c r="N4" s="82">
         <v>869</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="107"/>
-      <c r="B5" s="95" t="s">
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="100"/>
+      <c r="B5" s="90" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="66" t="b">
@@ -2274,34 +2404,37 @@
       <c r="E5" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="114" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="72">
         <v>390</v>
       </c>
-      <c r="G5" s="72">
+      <c r="H5" s="72">
         <v>330</v>
       </c>
-      <c r="H5" s="72">
+      <c r="I5" s="72">
         <v>589</v>
       </c>
-      <c r="I5" s="72">
+      <c r="J5" s="72">
         <v>525</v>
       </c>
-      <c r="J5" s="72">
+      <c r="K5" s="72">
         <v>2785</v>
       </c>
-      <c r="K5" s="72">
+      <c r="L5" s="72">
         <v>2331</v>
       </c>
-      <c r="L5" s="72">
+      <c r="M5" s="72">
         <v>882</v>
       </c>
-      <c r="M5" s="87">
+      <c r="N5" s="82">
         <v>926</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="107"/>
-      <c r="B6" s="95" t="s">
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="100"/>
+      <c r="B6" s="90" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="66" t="b">
@@ -2313,32 +2446,37 @@
       <c r="E6" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="72">
+      <c r="F6" s="114" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="72">
         <v>240</v>
       </c>
-      <c r="G6" s="72">
+      <c r="H6" s="72">
         <v>380</v>
       </c>
-      <c r="H6" s="72">
+      <c r="I6" s="72">
         <v>563</v>
       </c>
-      <c r="I6" s="72">
+      <c r="J6" s="72">
         <v>570</v>
       </c>
-      <c r="J6" s="72">
+      <c r="K6" s="72">
         <v>2933</v>
       </c>
-      <c r="K6" s="72">
+      <c r="L6" s="72">
         <v>2429</v>
       </c>
-      <c r="L6" s="72">
+      <c r="M6" s="72">
         <v>805</v>
       </c>
-      <c r="M6" s="87"/>
-    </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="107"/>
-      <c r="B7" s="95" t="s">
+      <c r="N6" s="82">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="100"/>
+      <c r="B7" s="90" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="66" t="b">
@@ -2350,18 +2488,37 @@
       <c r="E7" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="87"/>
-    </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="107"/>
-      <c r="B8" s="95" t="s">
+      <c r="F7" s="114" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="72">
+        <v>250</v>
+      </c>
+      <c r="H7" s="72">
+        <v>420</v>
+      </c>
+      <c r="I7" s="72">
+        <v>526</v>
+      </c>
+      <c r="J7" s="72">
+        <v>552</v>
+      </c>
+      <c r="K7" s="72">
+        <v>3031</v>
+      </c>
+      <c r="L7" s="72">
+        <v>2771</v>
+      </c>
+      <c r="M7" s="72">
+        <v>1014</v>
+      </c>
+      <c r="N7" s="82">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="100"/>
+      <c r="B8" s="90" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="66" t="b">
@@ -2373,18 +2530,37 @@
       <c r="E8" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="87"/>
-    </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="107"/>
-      <c r="B9" s="95" t="s">
+      <c r="F8" s="114" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="72">
+        <v>480</v>
+      </c>
+      <c r="H8" s="72">
+        <v>250</v>
+      </c>
+      <c r="I8" s="72">
+        <v>552</v>
+      </c>
+      <c r="J8" s="72">
+        <v>545</v>
+      </c>
+      <c r="K8" s="72">
+        <v>2937</v>
+      </c>
+      <c r="L8" s="72">
+        <v>3936</v>
+      </c>
+      <c r="M8" s="72">
+        <v>718</v>
+      </c>
+      <c r="N8" s="82">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="100"/>
+      <c r="B9" s="90" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="66" t="b">
@@ -2396,18 +2572,33 @@
       <c r="E9" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="87"/>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="107"/>
-      <c r="B10" s="95" t="s">
+      <c r="F9" s="114" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="72">
+        <v>360</v>
+      </c>
+      <c r="H9" s="72">
+        <v>360</v>
+      </c>
+      <c r="I9" s="72">
+        <v>485</v>
+      </c>
+      <c r="J9" s="72">
+        <v>550</v>
+      </c>
+      <c r="K9" s="72">
+        <v>2738</v>
+      </c>
+      <c r="L9" s="72">
+        <v>2875</v>
+      </c>
+      <c r="M9" s="72"/>
+      <c r="N9" s="82"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="100"/>
+      <c r="B10" s="90" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="66" t="b">
@@ -2419,18 +2610,21 @@
       <c r="E10" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="72"/>
+      <c r="F10" s="114" t="s">
+        <v>77</v>
+      </c>
       <c r="G10" s="72"/>
       <c r="H10" s="72"/>
       <c r="I10" s="72"/>
       <c r="J10" s="72"/>
       <c r="K10" s="72"/>
       <c r="L10" s="72"/>
-      <c r="M10" s="87"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="107"/>
-      <c r="B11" s="95" t="s">
+      <c r="M10" s="72"/>
+      <c r="N10" s="82"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="100"/>
+      <c r="B11" s="90" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="66" t="b">
@@ -2442,18 +2636,21 @@
       <c r="E11" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="72"/>
+      <c r="F11" s="114" t="s">
+        <v>77</v>
+      </c>
       <c r="G11" s="72"/>
       <c r="H11" s="72"/>
       <c r="I11" s="72"/>
       <c r="J11" s="72"/>
       <c r="K11" s="72"/>
       <c r="L11" s="72"/>
-      <c r="M11" s="87"/>
-    </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="107"/>
-      <c r="B12" s="95" t="s">
+      <c r="M11" s="72"/>
+      <c r="N11" s="82"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="100"/>
+      <c r="B12" s="90" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="66" t="b">
@@ -2465,18 +2662,21 @@
       <c r="E12" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="114" t="s">
+        <v>77</v>
+      </c>
       <c r="G12" s="72"/>
       <c r="H12" s="72"/>
       <c r="I12" s="72"/>
       <c r="J12" s="72"/>
       <c r="K12" s="72"/>
       <c r="L12" s="72"/>
-      <c r="M12" s="87"/>
-    </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="107"/>
-      <c r="B13" s="95" t="s">
+      <c r="M12" s="72"/>
+      <c r="N12" s="82"/>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="100"/>
+      <c r="B13" s="90" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="66" t="b">
@@ -2488,18 +2688,21 @@
       <c r="E13" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="114" t="s">
+        <v>77</v>
+      </c>
       <c r="G13" s="72"/>
       <c r="H13" s="72"/>
       <c r="I13" s="72"/>
       <c r="J13" s="72"/>
       <c r="K13" s="72"/>
       <c r="L13" s="72"/>
-      <c r="M13" s="87"/>
-    </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="96" t="s">
+      <c r="M13" s="72"/>
+      <c r="N13" s="82"/>
+    </row>
+    <row r="14" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="101"/>
+      <c r="B14" s="91" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="69" t="b">
@@ -2511,625 +2714,842 @@
       <c r="E14" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="89"/>
-    </row>
-    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="109" t="s">
+      <c r="F14" s="128" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="84"/>
+    </row>
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="90" t="b">
+      <c r="C15" s="85" t="b">
         <v>0</v>
       </c>
-      <c r="D15" s="91">
+      <c r="D15" s="86">
         <v>0.5</v>
       </c>
-      <c r="E15" s="92" t="s">
+      <c r="E15" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="94"/>
-    </row>
-    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="110"/>
-      <c r="B16" s="95" t="s">
+      <c r="F15" s="114">
+        <v>1</v>
+      </c>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="89"/>
+    </row>
+    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="96"/>
+      <c r="B16" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="66" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="67">
+      <c r="C16" s="85" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="86">
         <v>0.5</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="87"/>
-    </row>
-    <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="110"/>
-      <c r="B17" s="95" t="s">
+      <c r="F16" s="114">
+        <v>0</v>
+      </c>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="89"/>
+    </row>
+    <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="97"/>
+      <c r="B17" s="92" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="67">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E17" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="115">
+        <v>1</v>
+      </c>
       <c r="G17" s="72"/>
       <c r="H17" s="72"/>
       <c r="I17" s="72"/>
       <c r="J17" s="72"/>
       <c r="K17" s="72"/>
       <c r="L17" s="72"/>
-      <c r="M17" s="87"/>
-    </row>
-    <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="110"/>
-      <c r="B18" s="95" t="s">
+      <c r="M17" s="72"/>
+      <c r="N17" s="82"/>
+    </row>
+    <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="97"/>
+      <c r="B18" s="92" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="66" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="67">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="72"/>
+      <c r="F18" s="115">
+        <v>0</v>
+      </c>
       <c r="G18" s="72"/>
       <c r="H18" s="72"/>
       <c r="I18" s="72"/>
       <c r="J18" s="72"/>
       <c r="K18" s="72"/>
       <c r="L18" s="72"/>
-      <c r="M18" s="87"/>
-    </row>
-    <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="110"/>
-      <c r="B19" s="95" t="s">
+      <c r="M18" s="72"/>
+      <c r="N18" s="82"/>
+    </row>
+    <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="97"/>
+      <c r="B19" s="92" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="66" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="67">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E19" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="72"/>
+      <c r="F19" s="115">
+        <v>1</v>
+      </c>
       <c r="G19" s="72"/>
       <c r="H19" s="72"/>
       <c r="I19" s="72"/>
       <c r="J19" s="72"/>
       <c r="K19" s="72"/>
       <c r="L19" s="72"/>
-      <c r="M19" s="87"/>
-    </row>
-    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="110"/>
-      <c r="B20" s="95" t="s">
+      <c r="M19" s="72"/>
+      <c r="N19" s="82"/>
+    </row>
+    <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="97"/>
+      <c r="B20" s="92" t="s">
         <v>63</v>
       </c>
       <c r="C20" s="66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="67">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E20" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="115">
+        <v>0</v>
+      </c>
       <c r="G20" s="72"/>
       <c r="H20" s="72"/>
       <c r="I20" s="72"/>
       <c r="J20" s="72"/>
       <c r="K20" s="72"/>
       <c r="L20" s="72"/>
-      <c r="M20" s="87"/>
-    </row>
-    <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="110"/>
-      <c r="B21" s="95" t="s">
+      <c r="M20" s="72"/>
+      <c r="N20" s="82"/>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="97"/>
+      <c r="B21" s="92" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="67">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E21" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="72"/>
+      <c r="F21" s="115">
+        <v>1</v>
+      </c>
       <c r="G21" s="72"/>
       <c r="H21" s="72"/>
       <c r="I21" s="72"/>
       <c r="J21" s="72"/>
       <c r="K21" s="72"/>
       <c r="L21" s="72"/>
-      <c r="M21" s="87"/>
-    </row>
-    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="110"/>
-      <c r="B22" s="95" t="s">
+      <c r="M21" s="72"/>
+      <c r="N21" s="82"/>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="97"/>
+      <c r="B22" s="92" t="s">
         <v>65</v>
       </c>
       <c r="C22" s="66" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="67">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E22" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="72"/>
+      <c r="F22" s="115">
+        <v>0</v>
+      </c>
       <c r="G22" s="72"/>
       <c r="H22" s="72"/>
       <c r="I22" s="72"/>
       <c r="J22" s="72"/>
       <c r="K22" s="72"/>
       <c r="L22" s="72"/>
-      <c r="M22" s="87"/>
-    </row>
-    <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="110"/>
-      <c r="B23" s="95" t="s">
+      <c r="M22" s="72"/>
+      <c r="N22" s="82"/>
+    </row>
+    <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="97"/>
+      <c r="B23" s="92" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="66" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="67">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E23" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="72"/>
+      <c r="F23" s="115">
+        <v>1</v>
+      </c>
       <c r="G23" s="72"/>
       <c r="H23" s="72"/>
       <c r="I23" s="72"/>
       <c r="J23" s="72"/>
       <c r="K23" s="72"/>
       <c r="L23" s="72"/>
-      <c r="M23" s="87"/>
-    </row>
-    <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="110"/>
-      <c r="B24" s="95" t="s">
+      <c r="M23" s="72"/>
+      <c r="N23" s="82"/>
+    </row>
+    <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="97"/>
+      <c r="B24" s="92" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="67">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E24" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="72"/>
+      <c r="F24" s="115">
+        <v>0</v>
+      </c>
       <c r="G24" s="72"/>
       <c r="H24" s="72"/>
       <c r="I24" s="72"/>
       <c r="J24" s="72"/>
       <c r="K24" s="72"/>
       <c r="L24" s="72"/>
-      <c r="M24" s="87"/>
-    </row>
-    <row r="25" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="110"/>
-      <c r="B25" s="95" t="s">
+      <c r="M24" s="72"/>
+      <c r="N24" s="82"/>
+    </row>
+    <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="97"/>
+      <c r="B25" s="92" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="66" t="b">
         <v>1</v>
       </c>
       <c r="D25" s="67">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E25" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="72"/>
+        <v>46</v>
+      </c>
+      <c r="F25" s="115">
+        <v>1</v>
+      </c>
       <c r="G25" s="72"/>
       <c r="H25" s="72"/>
       <c r="I25" s="72"/>
       <c r="J25" s="72"/>
       <c r="K25" s="72"/>
       <c r="L25" s="72"/>
-      <c r="M25" s="87"/>
-    </row>
-    <row r="26" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="111"/>
-      <c r="B26" s="96" t="s">
+      <c r="M25" s="72"/>
+      <c r="N25" s="82"/>
+    </row>
+    <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="97"/>
+      <c r="B26" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="69" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" s="70">
+      <c r="C26" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="67">
+        <v>0.25</v>
+      </c>
+      <c r="E26" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="115">
+        <v>0</v>
+      </c>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="82"/>
+    </row>
+    <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="97"/>
+      <c r="B27" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="67">
+        <v>0</v>
+      </c>
+      <c r="E27" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="115">
+        <v>1</v>
+      </c>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="82"/>
+    </row>
+    <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="97"/>
+      <c r="B28" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="67">
+        <v>0</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="115">
+        <v>1</v>
+      </c>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="82"/>
+    </row>
+    <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="97"/>
+      <c r="B29" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="67">
+        <v>1</v>
+      </c>
+      <c r="E29" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="115">
+        <v>1</v>
+      </c>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="82"/>
+    </row>
+    <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="97"/>
+      <c r="B30" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="67">
+        <v>1</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="115">
+        <v>1</v>
+      </c>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="82"/>
+    </row>
+    <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="97"/>
+      <c r="B31" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="67">
         <v>0.5</v>
       </c>
-      <c r="E26" s="71" t="s">
+      <c r="E31" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="115">
+        <v>1</v>
+      </c>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="82"/>
+    </row>
+    <row r="32" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="98"/>
+      <c r="B32" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="89"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B28" s="84" t="s">
+      <c r="F32" s="116">
+        <v>1</v>
+      </c>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="84"/>
+    </row>
+    <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:12" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="B34" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="86"/>
-    </row>
-    <row r="29" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="73"/>
-      <c r="C29" s="65" t="s">
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="109"/>
+    </row>
+    <row r="35" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="73"/>
+      <c r="C35" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D35" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E35" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="82" t="s">
+      <c r="F35" s="118"/>
+      <c r="G35" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82" t="s">
+      <c r="H35" s="112"/>
+      <c r="I35" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82" t="s">
+      <c r="J35" s="112"/>
+      <c r="K35" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="K29" s="83"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="74" t="s">
+      <c r="L35" s="111"/>
+    </row>
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="74" t="s">
         <v>48</v>
-      </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="79"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="79"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="79"/>
-    </row>
-    <row r="33" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="79"/>
-    </row>
-    <row r="34" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="79"/>
-    </row>
-    <row r="35" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="79"/>
-    </row>
-    <row r="36" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="74" t="s">
-        <v>54</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="76"/>
       <c r="E36" s="76"/>
-      <c r="F36" s="78"/>
+      <c r="F36" s="119"/>
       <c r="G36" s="78"/>
       <c r="H36" s="78"/>
       <c r="I36" s="78"/>
       <c r="J36" s="78"/>
-      <c r="K36" s="79"/>
-    </row>
-    <row r="37" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K36" s="78"/>
+      <c r="L36" s="79"/>
+    </row>
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="74" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C37" s="76"/>
       <c r="D37" s="76"/>
       <c r="E37" s="76"/>
-      <c r="F37" s="78"/>
+      <c r="F37" s="119"/>
       <c r="G37" s="78"/>
       <c r="H37" s="78"/>
       <c r="I37" s="78"/>
       <c r="J37" s="78"/>
-      <c r="K37" s="79"/>
-    </row>
-    <row r="38" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K37" s="78"/>
+      <c r="L37" s="79"/>
+    </row>
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="74" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C38" s="76"/>
       <c r="D38" s="76"/>
       <c r="E38" s="76"/>
-      <c r="F38" s="78"/>
+      <c r="F38" s="119"/>
       <c r="G38" s="78"/>
       <c r="H38" s="78"/>
       <c r="I38" s="78"/>
       <c r="J38" s="78"/>
-      <c r="K38" s="79"/>
-    </row>
-    <row r="39" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K38" s="78"/>
+      <c r="L38" s="79"/>
+    </row>
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="74" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C39" s="76"/>
       <c r="D39" s="76"/>
       <c r="E39" s="76"/>
-      <c r="F39" s="78"/>
+      <c r="F39" s="119"/>
       <c r="G39" s="78"/>
       <c r="H39" s="78"/>
       <c r="I39" s="78"/>
       <c r="J39" s="78"/>
-      <c r="K39" s="79"/>
-    </row>
-    <row r="40" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K39" s="78"/>
+      <c r="L39" s="79"/>
+    </row>
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="74" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C40" s="76"/>
       <c r="D40" s="76"/>
       <c r="E40" s="76"/>
-      <c r="F40" s="78"/>
+      <c r="F40" s="119"/>
       <c r="G40" s="78"/>
       <c r="H40" s="78"/>
       <c r="I40" s="78"/>
       <c r="J40" s="78"/>
-      <c r="K40" s="79"/>
-    </row>
-    <row r="41" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K40" s="78"/>
+      <c r="L40" s="79"/>
+    </row>
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="74" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C41" s="76"/>
       <c r="D41" s="76"/>
       <c r="E41" s="76"/>
-      <c r="F41" s="78"/>
+      <c r="F41" s="119"/>
       <c r="G41" s="78"/>
       <c r="H41" s="78"/>
       <c r="I41" s="78"/>
       <c r="J41" s="78"/>
-      <c r="K41" s="79"/>
-    </row>
-    <row r="42" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K41" s="78"/>
+      <c r="L41" s="79"/>
+    </row>
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="74" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C42" s="76"/>
       <c r="D42" s="76"/>
       <c r="E42" s="76"/>
-      <c r="F42" s="78"/>
+      <c r="F42" s="119"/>
       <c r="G42" s="78"/>
       <c r="H42" s="78"/>
       <c r="I42" s="78"/>
       <c r="J42" s="78"/>
-      <c r="K42" s="79"/>
-    </row>
-    <row r="43" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K42" s="78"/>
+      <c r="L42" s="79"/>
+    </row>
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="74" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C43" s="76"/>
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
-      <c r="F43" s="78"/>
+      <c r="F43" s="119"/>
       <c r="G43" s="78"/>
       <c r="H43" s="78"/>
       <c r="I43" s="78"/>
       <c r="J43" s="78"/>
-      <c r="K43" s="79"/>
-    </row>
-    <row r="44" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K43" s="78"/>
+      <c r="L43" s="79"/>
+    </row>
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="74" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C44" s="76"/>
       <c r="D44" s="76"/>
       <c r="E44" s="76"/>
-      <c r="F44" s="78"/>
+      <c r="F44" s="119"/>
       <c r="G44" s="78"/>
       <c r="H44" s="78"/>
       <c r="I44" s="78"/>
       <c r="J44" s="78"/>
-      <c r="K44" s="79"/>
-    </row>
-    <row r="45" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K44" s="78"/>
+      <c r="L44" s="79"/>
+    </row>
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="74" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C45" s="76"/>
       <c r="D45" s="76"/>
       <c r="E45" s="76"/>
-      <c r="F45" s="78"/>
+      <c r="F45" s="119"/>
       <c r="G45" s="78"/>
       <c r="H45" s="78"/>
       <c r="I45" s="78"/>
       <c r="J45" s="78"/>
-      <c r="K45" s="79"/>
-    </row>
-    <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K45" s="78"/>
+      <c r="L45" s="79"/>
+    </row>
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="74" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C46" s="76"/>
       <c r="D46" s="76"/>
       <c r="E46" s="76"/>
-      <c r="F46" s="78"/>
+      <c r="F46" s="119"/>
       <c r="G46" s="78"/>
       <c r="H46" s="78"/>
       <c r="I46" s="78"/>
       <c r="J46" s="78"/>
-      <c r="K46" s="79"/>
-    </row>
-    <row r="47" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K46" s="78"/>
+      <c r="L46" s="79"/>
+    </row>
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="74" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C47" s="76"/>
       <c r="D47" s="76"/>
       <c r="E47" s="76"/>
-      <c r="F47" s="78"/>
+      <c r="F47" s="119"/>
       <c r="G47" s="78"/>
       <c r="H47" s="78"/>
       <c r="I47" s="78"/>
       <c r="J47" s="78"/>
-      <c r="K47" s="79"/>
-    </row>
-    <row r="48" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K47" s="78"/>
+      <c r="L47" s="79"/>
+    </row>
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="74" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C48" s="76"/>
       <c r="D48" s="76"/>
       <c r="E48" s="76"/>
-      <c r="F48" s="78"/>
+      <c r="F48" s="119"/>
       <c r="G48" s="78"/>
       <c r="H48" s="78"/>
       <c r="I48" s="78"/>
       <c r="J48" s="78"/>
-      <c r="K48" s="79"/>
-    </row>
-    <row r="49" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="75" t="s">
+      <c r="K48" s="78"/>
+      <c r="L48" s="79"/>
+    </row>
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="78"/>
+      <c r="L49" s="79"/>
+    </row>
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="79"/>
+    </row>
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="119"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="79"/>
+    </row>
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="119"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="78"/>
+      <c r="L52" s="79"/>
+    </row>
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
+      <c r="L53" s="79"/>
+    </row>
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="119"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="78"/>
+      <c r="L54" s="79"/>
+    </row>
+    <row r="55" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="80"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="81"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="80"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A15:A32"/>
     <mergeCell ref="A3:A14"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DeliverooAgent/report/agent_tests.xlsx
+++ b/DeliverooAgent/report/agent_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucaz\Desktop\ASA\Github\DeliverooAgent\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E99B4F4-6058-45C4-825A-67A36C32B8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47062D06-1DC1-4174-9395-C4D1F18DA66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{065E83BE-B1A0-4502-AE30-4FB66E0EBDE0}"/>
   </bookViews>
@@ -969,7 +969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1234,6 +1234,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1274,57 +1307,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2239,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0D301A-73A6-4526-833A-44D4BEDE7EE1}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2248,8 +2230,7 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="6" max="6" width="37" style="117" customWidth="1"/>
+    <col min="5" max="6" width="37" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" customWidth="1"/>
@@ -2257,21 +2238,21 @@
   <sheetData>
     <row r="1" spans="1:14" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="95"/>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="106"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="117"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="93"/>
@@ -2284,72 +2265,72 @@
       <c r="E2" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="102" t="s">
+      <c r="G2" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102" t="s">
+      <c r="H2" s="113"/>
+      <c r="I2" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102" t="s">
+      <c r="J2" s="113"/>
+      <c r="K2" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="103"/>
+      <c r="N2" s="114"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="122" t="b">
+      <c r="C3" s="98" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="123">
+      <c r="D3" s="99">
         <v>0.5</v>
       </c>
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="125" t="s">
+      <c r="F3" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="126">
+      <c r="G3" s="101">
         <v>340</v>
       </c>
-      <c r="H3" s="126">
+      <c r="H3" s="101">
         <v>400</v>
       </c>
-      <c r="I3" s="126">
+      <c r="I3" s="101">
         <v>602</v>
       </c>
-      <c r="J3" s="126">
+      <c r="J3" s="101">
         <v>699</v>
       </c>
-      <c r="K3" s="126">
+      <c r="K3" s="101">
         <v>3054</v>
       </c>
-      <c r="L3" s="126">
+      <c r="L3" s="101">
         <v>2483</v>
       </c>
-      <c r="M3" s="126">
+      <c r="M3" s="101">
         <v>755</v>
       </c>
-      <c r="N3" s="127">
+      <c r="N3" s="102">
         <v>754</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="100"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="90" t="s">
         <v>49</v>
       </c>
@@ -2362,7 +2343,7 @@
       <c r="E4" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="85" t="s">
         <v>77</v>
       </c>
       <c r="G4" s="72">
@@ -2391,7 +2372,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="100"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="90" t="s">
         <v>50</v>
       </c>
@@ -2404,7 +2385,7 @@
       <c r="E5" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="85" t="s">
         <v>77</v>
       </c>
       <c r="G5" s="72">
@@ -2433,7 +2414,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="100"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="90" t="s">
         <v>51</v>
       </c>
@@ -2446,7 +2427,7 @@
       <c r="E6" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="114" t="s">
+      <c r="F6" s="85" t="s">
         <v>77</v>
       </c>
       <c r="G6" s="72">
@@ -2475,7 +2456,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="90" t="s">
         <v>52</v>
       </c>
@@ -2488,7 +2469,7 @@
       <c r="E7" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="114" t="s">
+      <c r="F7" s="85" t="s">
         <v>77</v>
       </c>
       <c r="G7" s="72">
@@ -2517,7 +2498,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="100"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="90" t="s">
         <v>53</v>
       </c>
@@ -2530,7 +2511,7 @@
       <c r="E8" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="114" t="s">
+      <c r="F8" s="85" t="s">
         <v>77</v>
       </c>
       <c r="G8" s="72">
@@ -2559,7 +2540,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="100"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="90" t="s">
         <v>54</v>
       </c>
@@ -2572,7 +2553,7 @@
       <c r="E9" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="85" t="s">
         <v>77</v>
       </c>
       <c r="G9" s="72">
@@ -2593,11 +2574,15 @@
       <c r="L9" s="72">
         <v>2875</v>
       </c>
-      <c r="M9" s="72"/>
-      <c r="N9" s="82"/>
+      <c r="M9" s="72">
+        <v>1108</v>
+      </c>
+      <c r="N9" s="82">
+        <v>1051</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="100"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="90" t="s">
         <v>55</v>
       </c>
@@ -2610,7 +2595,7 @@
       <c r="E10" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="114" t="s">
+      <c r="F10" s="85" t="s">
         <v>77</v>
       </c>
       <c r="G10" s="72"/>
@@ -2623,7 +2608,7 @@
       <c r="N10" s="82"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="90" t="s">
         <v>56</v>
       </c>
@@ -2636,7 +2621,7 @@
       <c r="E11" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="114" t="s">
+      <c r="F11" s="85" t="s">
         <v>77</v>
       </c>
       <c r="G11" s="72"/>
@@ -2649,7 +2634,7 @@
       <c r="N11" s="82"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="90" t="s">
         <v>57</v>
       </c>
@@ -2662,7 +2647,7 @@
       <c r="E12" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="114" t="s">
+      <c r="F12" s="85" t="s">
         <v>77</v>
       </c>
       <c r="G12" s="72"/>
@@ -2675,7 +2660,7 @@
       <c r="N12" s="82"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="100"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="90" t="s">
         <v>58</v>
       </c>
@@ -2688,7 +2673,7 @@
       <c r="E13" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="114" t="s">
+      <c r="F13" s="85" t="s">
         <v>77</v>
       </c>
       <c r="G13" s="72"/>
@@ -2701,7 +2686,7 @@
       <c r="N13" s="82"/>
     </row>
     <row r="14" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="101"/>
+      <c r="A14" s="112"/>
       <c r="B14" s="91" t="s">
         <v>59</v>
       </c>
@@ -2714,7 +2699,7 @@
       <c r="E14" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="128" t="s">
+      <c r="F14" s="103" t="s">
         <v>77</v>
       </c>
       <c r="G14" s="83"/>
@@ -2727,7 +2712,7 @@
       <c r="N14" s="84"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="107" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -2742,7 +2727,7 @@
       <c r="E15" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="114">
+      <c r="F15" s="85">
         <v>1</v>
       </c>
       <c r="G15" s="88"/>
@@ -2755,7 +2740,7 @@
       <c r="N15" s="89"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="96"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="92" t="s">
         <v>59</v>
       </c>
@@ -2768,7 +2753,7 @@
       <c r="E16" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="114">
+      <c r="F16" s="85">
         <v>0</v>
       </c>
       <c r="G16" s="88"/>
@@ -2781,7 +2766,7 @@
       <c r="N16" s="89"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="97"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="92" t="s">
         <v>60</v>
       </c>
@@ -2794,7 +2779,7 @@
       <c r="E17" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="115">
+      <c r="F17" s="66">
         <v>1</v>
       </c>
       <c r="G17" s="72"/>
@@ -2807,7 +2792,7 @@
       <c r="N17" s="82"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="97"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="92" t="s">
         <v>61</v>
       </c>
@@ -2820,7 +2805,7 @@
       <c r="E18" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="115">
+      <c r="F18" s="66">
         <v>0</v>
       </c>
       <c r="G18" s="72"/>
@@ -2833,7 +2818,7 @@
       <c r="N18" s="82"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="97"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="92" t="s">
         <v>62</v>
       </c>
@@ -2846,7 +2831,7 @@
       <c r="E19" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="115">
+      <c r="F19" s="66">
         <v>1</v>
       </c>
       <c r="G19" s="72"/>
@@ -2859,7 +2844,7 @@
       <c r="N19" s="82"/>
     </row>
     <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="92" t="s">
         <v>63</v>
       </c>
@@ -2872,7 +2857,7 @@
       <c r="E20" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="115">
+      <c r="F20" s="66">
         <v>0</v>
       </c>
       <c r="G20" s="72"/>
@@ -2885,7 +2870,7 @@
       <c r="N20" s="82"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="97"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="92" t="s">
         <v>64</v>
       </c>
@@ -2898,7 +2883,7 @@
       <c r="E21" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="115">
+      <c r="F21" s="66">
         <v>1</v>
       </c>
       <c r="G21" s="72"/>
@@ -2911,7 +2896,7 @@
       <c r="N21" s="82"/>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="97"/>
+      <c r="A22" s="108"/>
       <c r="B22" s="92" t="s">
         <v>65</v>
       </c>
@@ -2924,7 +2909,7 @@
       <c r="E22" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="115">
+      <c r="F22" s="66">
         <v>0</v>
       </c>
       <c r="G22" s="72"/>
@@ -2937,7 +2922,7 @@
       <c r="N22" s="82"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="97"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="92" t="s">
         <v>66</v>
       </c>
@@ -2950,7 +2935,7 @@
       <c r="E23" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="115">
+      <c r="F23" s="66">
         <v>1</v>
       </c>
       <c r="G23" s="72"/>
@@ -2963,7 +2948,7 @@
       <c r="N23" s="82"/>
     </row>
     <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="97"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="92" t="s">
         <v>67</v>
       </c>
@@ -2976,7 +2961,7 @@
       <c r="E24" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="115">
+      <c r="F24" s="66">
         <v>0</v>
       </c>
       <c r="G24" s="72"/>
@@ -2989,7 +2974,7 @@
       <c r="N24" s="82"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="97"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="92" t="s">
         <v>74</v>
       </c>
@@ -3002,7 +2987,7 @@
       <c r="E25" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="115">
+      <c r="F25" s="66">
         <v>1</v>
       </c>
       <c r="G25" s="72"/>
@@ -3015,7 +3000,7 @@
       <c r="N25" s="82"/>
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="97"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="92" t="s">
         <v>75</v>
       </c>
@@ -3028,7 +3013,7 @@
       <c r="E26" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="115">
+      <c r="F26" s="66">
         <v>0</v>
       </c>
       <c r="G26" s="72"/>
@@ -3041,7 +3026,7 @@
       <c r="N26" s="82"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="97"/>
+      <c r="A27" s="108"/>
       <c r="B27" s="92" t="s">
         <v>78</v>
       </c>
@@ -3054,7 +3039,7 @@
       <c r="E27" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="115">
+      <c r="F27" s="66">
         <v>1</v>
       </c>
       <c r="G27" s="72"/>
@@ -3067,7 +3052,7 @@
       <c r="N27" s="82"/>
     </row>
     <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="97"/>
+      <c r="A28" s="108"/>
       <c r="B28" s="92" t="s">
         <v>79</v>
       </c>
@@ -3080,7 +3065,7 @@
       <c r="E28" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="115">
+      <c r="F28" s="66">
         <v>1</v>
       </c>
       <c r="G28" s="72"/>
@@ -3093,7 +3078,7 @@
       <c r="N28" s="82"/>
     </row>
     <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="97"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="92" t="s">
         <v>80</v>
       </c>
@@ -3106,7 +3091,7 @@
       <c r="E29" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="115">
+      <c r="F29" s="66">
         <v>1</v>
       </c>
       <c r="G29" s="72"/>
@@ -3119,7 +3104,7 @@
       <c r="N29" s="82"/>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="97"/>
+      <c r="A30" s="108"/>
       <c r="B30" s="92" t="s">
         <v>81</v>
       </c>
@@ -3132,7 +3117,7 @@
       <c r="E30" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="115">
+      <c r="F30" s="66">
         <v>1</v>
       </c>
       <c r="G30" s="72"/>
@@ -3145,7 +3130,7 @@
       <c r="N30" s="82"/>
     </row>
     <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="97"/>
+      <c r="A31" s="108"/>
       <c r="B31" s="92" t="s">
         <v>82</v>
       </c>
@@ -3158,7 +3143,7 @@
       <c r="E31" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="115">
+      <c r="F31" s="66">
         <v>1</v>
       </c>
       <c r="G31" s="72"/>
@@ -3171,7 +3156,7 @@
       <c r="N31" s="82"/>
     </row>
     <row r="32" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="98"/>
+      <c r="A32" s="109"/>
       <c r="B32" s="92" t="s">
         <v>83</v>
       </c>
@@ -3184,7 +3169,7 @@
       <c r="E32" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="116">
+      <c r="F32" s="69">
         <v>1</v>
       </c>
       <c r="G32" s="83"/>
@@ -3198,19 +3183,19 @@
     </row>
     <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:12" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B34" s="107" t="s">
+      <c r="B34" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="109"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="119"/>
+      <c r="L34" s="120"/>
     </row>
     <row r="35" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="73"/>
@@ -3223,19 +3208,19 @@
       <c r="E35" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="118"/>
-      <c r="G35" s="110" t="s">
+      <c r="F35" s="96"/>
+      <c r="G35" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="112"/>
-      <c r="I35" s="110" t="s">
+      <c r="H35" s="106"/>
+      <c r="I35" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="112"/>
-      <c r="K35" s="110" t="s">
+      <c r="J35" s="106"/>
+      <c r="K35" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="L35" s="111"/>
+      <c r="L35" s="105"/>
     </row>
     <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="74" t="s">
@@ -3244,7 +3229,7 @@
       <c r="C36" s="76"/>
       <c r="D36" s="76"/>
       <c r="E36" s="76"/>
-      <c r="F36" s="119"/>
+      <c r="F36" s="76"/>
       <c r="G36" s="78"/>
       <c r="H36" s="78"/>
       <c r="I36" s="78"/>
@@ -3259,7 +3244,7 @@
       <c r="C37" s="76"/>
       <c r="D37" s="76"/>
       <c r="E37" s="76"/>
-      <c r="F37" s="119"/>
+      <c r="F37" s="76"/>
       <c r="G37" s="78"/>
       <c r="H37" s="78"/>
       <c r="I37" s="78"/>
@@ -3274,7 +3259,7 @@
       <c r="C38" s="76"/>
       <c r="D38" s="76"/>
       <c r="E38" s="76"/>
-      <c r="F38" s="119"/>
+      <c r="F38" s="76"/>
       <c r="G38" s="78"/>
       <c r="H38" s="78"/>
       <c r="I38" s="78"/>
@@ -3289,7 +3274,7 @@
       <c r="C39" s="76"/>
       <c r="D39" s="76"/>
       <c r="E39" s="76"/>
-      <c r="F39" s="119"/>
+      <c r="F39" s="76"/>
       <c r="G39" s="78"/>
       <c r="H39" s="78"/>
       <c r="I39" s="78"/>
@@ -3304,7 +3289,7 @@
       <c r="C40" s="76"/>
       <c r="D40" s="76"/>
       <c r="E40" s="76"/>
-      <c r="F40" s="119"/>
+      <c r="F40" s="76"/>
       <c r="G40" s="78"/>
       <c r="H40" s="78"/>
       <c r="I40" s="78"/>
@@ -3319,7 +3304,7 @@
       <c r="C41" s="76"/>
       <c r="D41" s="76"/>
       <c r="E41" s="76"/>
-      <c r="F41" s="119"/>
+      <c r="F41" s="76"/>
       <c r="G41" s="78"/>
       <c r="H41" s="78"/>
       <c r="I41" s="78"/>
@@ -3334,7 +3319,7 @@
       <c r="C42" s="76"/>
       <c r="D42" s="76"/>
       <c r="E42" s="76"/>
-      <c r="F42" s="119"/>
+      <c r="F42" s="76"/>
       <c r="G42" s="78"/>
       <c r="H42" s="78"/>
       <c r="I42" s="78"/>
@@ -3349,7 +3334,7 @@
       <c r="C43" s="76"/>
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
-      <c r="F43" s="119"/>
+      <c r="F43" s="76"/>
       <c r="G43" s="78"/>
       <c r="H43" s="78"/>
       <c r="I43" s="78"/>
@@ -3364,7 +3349,7 @@
       <c r="C44" s="76"/>
       <c r="D44" s="76"/>
       <c r="E44" s="76"/>
-      <c r="F44" s="119"/>
+      <c r="F44" s="76"/>
       <c r="G44" s="78"/>
       <c r="H44" s="78"/>
       <c r="I44" s="78"/>
@@ -3379,7 +3364,7 @@
       <c r="C45" s="76"/>
       <c r="D45" s="76"/>
       <c r="E45" s="76"/>
-      <c r="F45" s="119"/>
+      <c r="F45" s="76"/>
       <c r="G45" s="78"/>
       <c r="H45" s="78"/>
       <c r="I45" s="78"/>
@@ -3394,7 +3379,7 @@
       <c r="C46" s="76"/>
       <c r="D46" s="76"/>
       <c r="E46" s="76"/>
-      <c r="F46" s="119"/>
+      <c r="F46" s="76"/>
       <c r="G46" s="78"/>
       <c r="H46" s="78"/>
       <c r="I46" s="78"/>
@@ -3409,7 +3394,7 @@
       <c r="C47" s="76"/>
       <c r="D47" s="76"/>
       <c r="E47" s="76"/>
-      <c r="F47" s="119"/>
+      <c r="F47" s="76"/>
       <c r="G47" s="78"/>
       <c r="H47" s="78"/>
       <c r="I47" s="78"/>
@@ -3424,7 +3409,7 @@
       <c r="C48" s="76"/>
       <c r="D48" s="76"/>
       <c r="E48" s="76"/>
-      <c r="F48" s="119"/>
+      <c r="F48" s="76"/>
       <c r="G48" s="78"/>
       <c r="H48" s="78"/>
       <c r="I48" s="78"/>
@@ -3439,7 +3424,7 @@
       <c r="C49" s="76"/>
       <c r="D49" s="76"/>
       <c r="E49" s="76"/>
-      <c r="F49" s="119"/>
+      <c r="F49" s="76"/>
       <c r="G49" s="78"/>
       <c r="H49" s="78"/>
       <c r="I49" s="78"/>
@@ -3454,7 +3439,7 @@
       <c r="C50" s="76"/>
       <c r="D50" s="76"/>
       <c r="E50" s="76"/>
-      <c r="F50" s="119"/>
+      <c r="F50" s="76"/>
       <c r="G50" s="78"/>
       <c r="H50" s="78"/>
       <c r="I50" s="78"/>
@@ -3469,7 +3454,7 @@
       <c r="C51" s="76"/>
       <c r="D51" s="76"/>
       <c r="E51" s="76"/>
-      <c r="F51" s="119"/>
+      <c r="F51" s="76"/>
       <c r="G51" s="78"/>
       <c r="H51" s="78"/>
       <c r="I51" s="78"/>
@@ -3484,7 +3469,7 @@
       <c r="C52" s="76"/>
       <c r="D52" s="76"/>
       <c r="E52" s="76"/>
-      <c r="F52" s="119"/>
+      <c r="F52" s="76"/>
       <c r="G52" s="78"/>
       <c r="H52" s="78"/>
       <c r="I52" s="78"/>
@@ -3499,7 +3484,7 @@
       <c r="C53" s="76"/>
       <c r="D53" s="76"/>
       <c r="E53" s="76"/>
-      <c r="F53" s="119"/>
+      <c r="F53" s="76"/>
       <c r="G53" s="78"/>
       <c r="H53" s="78"/>
       <c r="I53" s="78"/>
@@ -3514,7 +3499,7 @@
       <c r="C54" s="76"/>
       <c r="D54" s="76"/>
       <c r="E54" s="76"/>
-      <c r="F54" s="119"/>
+      <c r="F54" s="76"/>
       <c r="G54" s="78"/>
       <c r="H54" s="78"/>
       <c r="I54" s="78"/>
@@ -3529,7 +3514,7 @@
       <c r="C55" s="77"/>
       <c r="D55" s="77"/>
       <c r="E55" s="77"/>
-      <c r="F55" s="120"/>
+      <c r="F55" s="77"/>
       <c r="G55" s="80"/>
       <c r="H55" s="80"/>
       <c r="I55" s="80"/>
@@ -3539,17 +3524,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="A3:A14"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B34:L34"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="A3:A14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DeliverooAgent/report/agent_tests.xlsx
+++ b/DeliverooAgent/report/agent_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucaz\Desktop\ASA\Github\DeliverooAgent\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47062D06-1DC1-4174-9395-C4D1F18DA66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AE7DAD-C2D5-43A4-B752-0B6F5D0D8ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{065E83BE-B1A0-4502-AE30-4FB66E0EBDE0}"/>
   </bookViews>
@@ -1258,6 +1258,30 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1284,30 +1308,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2221,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0D301A-73A6-4526-833A-44D4BEDE7EE1}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,21 +2238,21 @@
   <sheetData>
     <row r="1" spans="1:14" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="95"/>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="117"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="108"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="93"/>
@@ -2268,25 +2268,25 @@
       <c r="F2" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="113" t="s">
+      <c r="G2" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113" t="s">
+      <c r="H2" s="104"/>
+      <c r="I2" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113" t="s">
+      <c r="J2" s="104"/>
+      <c r="K2" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113" t="s">
+      <c r="L2" s="104"/>
+      <c r="M2" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="114"/>
+      <c r="N2" s="105"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="118" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="97" t="s">
@@ -2330,7 +2330,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="111"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="90" t="s">
         <v>49</v>
       </c>
@@ -2372,7 +2372,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="111"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="90" t="s">
         <v>50</v>
       </c>
@@ -2414,7 +2414,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="111"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="90" t="s">
         <v>51</v>
       </c>
@@ -2456,7 +2456,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="111"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="90" t="s">
         <v>52</v>
       </c>
@@ -2498,7 +2498,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="111"/>
+      <c r="A8" s="119"/>
       <c r="B8" s="90" t="s">
         <v>53</v>
       </c>
@@ -2540,7 +2540,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="111"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="90" t="s">
         <v>54</v>
       </c>
@@ -2582,7 +2582,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="111"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="90" t="s">
         <v>55</v>
       </c>
@@ -2598,17 +2598,25 @@
       <c r="F10" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
+      <c r="G10" s="72">
+        <v>350</v>
+      </c>
+      <c r="H10" s="72">
+        <v>370</v>
+      </c>
+      <c r="I10" s="72">
+        <v>605</v>
+      </c>
+      <c r="J10" s="72">
+        <v>641</v>
+      </c>
       <c r="K10" s="72"/>
       <c r="L10" s="72"/>
       <c r="M10" s="72"/>
       <c r="N10" s="82"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111"/>
+      <c r="A11" s="119"/>
       <c r="B11" s="90" t="s">
         <v>56</v>
       </c>
@@ -2634,7 +2642,7 @@
       <c r="N11" s="82"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="90" t="s">
         <v>57</v>
       </c>
@@ -2660,7 +2668,7 @@
       <c r="N12" s="82"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="90" t="s">
         <v>58</v>
       </c>
@@ -2686,7 +2694,7 @@
       <c r="N13" s="82"/>
     </row>
     <row r="14" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="112"/>
+      <c r="A14" s="120"/>
       <c r="B14" s="91" t="s">
         <v>59</v>
       </c>
@@ -2712,7 +2720,7 @@
       <c r="N14" s="84"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="115" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -2740,7 +2748,7 @@
       <c r="N15" s="89"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="107"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="92" t="s">
         <v>59</v>
       </c>
@@ -2766,7 +2774,7 @@
       <c r="N16" s="89"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="108"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="92" t="s">
         <v>60</v>
       </c>
@@ -2792,7 +2800,7 @@
       <c r="N17" s="82"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="108"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="92" t="s">
         <v>61</v>
       </c>
@@ -2818,7 +2826,7 @@
       <c r="N18" s="82"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="108"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="92" t="s">
         <v>62</v>
       </c>
@@ -2844,7 +2852,7 @@
       <c r="N19" s="82"/>
     </row>
     <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="108"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="92" t="s">
         <v>63</v>
       </c>
@@ -2870,7 +2878,7 @@
       <c r="N20" s="82"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="108"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="92" t="s">
         <v>64</v>
       </c>
@@ -2896,7 +2904,7 @@
       <c r="N21" s="82"/>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="108"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="92" t="s">
         <v>65</v>
       </c>
@@ -2922,7 +2930,7 @@
       <c r="N22" s="82"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="108"/>
+      <c r="A23" s="116"/>
       <c r="B23" s="92" t="s">
         <v>66</v>
       </c>
@@ -2948,7 +2956,7 @@
       <c r="N23" s="82"/>
     </row>
     <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="108"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="92" t="s">
         <v>67</v>
       </c>
@@ -2974,7 +2982,7 @@
       <c r="N24" s="82"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="108"/>
+      <c r="A25" s="116"/>
       <c r="B25" s="92" t="s">
         <v>74</v>
       </c>
@@ -3000,7 +3008,7 @@
       <c r="N25" s="82"/>
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="108"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="92" t="s">
         <v>75</v>
       </c>
@@ -3026,7 +3034,7 @@
       <c r="N26" s="82"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="108"/>
+      <c r="A27" s="116"/>
       <c r="B27" s="92" t="s">
         <v>78</v>
       </c>
@@ -3052,7 +3060,7 @@
       <c r="N27" s="82"/>
     </row>
     <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="108"/>
+      <c r="A28" s="116"/>
       <c r="B28" s="92" t="s">
         <v>79</v>
       </c>
@@ -3078,7 +3086,7 @@
       <c r="N28" s="82"/>
     </row>
     <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="108"/>
+      <c r="A29" s="116"/>
       <c r="B29" s="92" t="s">
         <v>80</v>
       </c>
@@ -3104,7 +3112,7 @@
       <c r="N29" s="82"/>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="108"/>
+      <c r="A30" s="116"/>
       <c r="B30" s="92" t="s">
         <v>81</v>
       </c>
@@ -3130,7 +3138,7 @@
       <c r="N30" s="82"/>
     </row>
     <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="108"/>
+      <c r="A31" s="116"/>
       <c r="B31" s="92" t="s">
         <v>82</v>
       </c>
@@ -3156,7 +3164,7 @@
       <c r="N31" s="82"/>
     </row>
     <row r="32" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="109"/>
+      <c r="A32" s="117"/>
       <c r="B32" s="92" t="s">
         <v>83</v>
       </c>
@@ -3183,19 +3191,19 @@
     </row>
     <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:12" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B34" s="118" t="s">
+      <c r="B34" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="119"/>
-      <c r="K34" s="119"/>
-      <c r="L34" s="120"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="111"/>
     </row>
     <row r="35" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="73"/>
@@ -3209,18 +3217,18 @@
         <v>44</v>
       </c>
       <c r="F35" s="96"/>
-      <c r="G35" s="104" t="s">
+      <c r="G35" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="106"/>
-      <c r="I35" s="104" t="s">
+      <c r="H35" s="114"/>
+      <c r="I35" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="106"/>
-      <c r="K35" s="104" t="s">
+      <c r="J35" s="114"/>
+      <c r="K35" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="L35" s="105"/>
+      <c r="L35" s="113"/>
     </row>
     <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="74" t="s">
@@ -3524,17 +3532,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="A3:A14"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B34:L34"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="A3:A14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DeliverooAgent/report/agent_tests.xlsx
+++ b/DeliverooAgent/report/agent_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucaz\Desktop\ASA\Github\DeliverooAgent\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AE7DAD-C2D5-43A4-B752-0B6F5D0D8ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD1749D-4812-4696-B8B7-05904B17B560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{065E83BE-B1A0-4502-AE30-4FB66E0EBDE0}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{065E83BE-B1A0-4502-AE30-4FB66E0EBDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Validation params" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="85">
   <si>
     <t>PARCELS_GENERATION_INTERVAL</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>Test 28</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1258,30 +1261,6 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1308,6 +1287,30 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2221,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0D301A-73A6-4526-833A-44D4BEDE7EE1}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,21 +2241,21 @@
   <sheetData>
     <row r="1" spans="1:14" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="95"/>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="108"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="117"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="93"/>
@@ -2268,25 +2271,25 @@
       <c r="F2" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="104" t="s">
+      <c r="G2" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104" t="s">
+      <c r="H2" s="113"/>
+      <c r="I2" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104" t="s">
+      <c r="J2" s="113"/>
+      <c r="K2" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="105"/>
+      <c r="N2" s="114"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="110" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="97" t="s">
@@ -2330,7 +2333,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="119"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="90" t="s">
         <v>49</v>
       </c>
@@ -2372,7 +2375,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="119"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="90" t="s">
         <v>50</v>
       </c>
@@ -2414,7 +2417,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="119"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="90" t="s">
         <v>51</v>
       </c>
@@ -2456,7 +2459,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="119"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="90" t="s">
         <v>52</v>
       </c>
@@ -2498,7 +2501,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="119"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="90" t="s">
         <v>53</v>
       </c>
@@ -2540,7 +2543,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="119"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="90" t="s">
         <v>54</v>
       </c>
@@ -2582,7 +2585,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="119"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="90" t="s">
         <v>55</v>
       </c>
@@ -2610,13 +2613,21 @@
       <c r="J10" s="72">
         <v>641</v>
       </c>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="82"/>
+      <c r="K10" s="72">
+        <v>3236</v>
+      </c>
+      <c r="L10" s="72">
+        <v>2990</v>
+      </c>
+      <c r="M10" s="72">
+        <v>1253</v>
+      </c>
+      <c r="N10" s="82">
+        <v>1414</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="119"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="90" t="s">
         <v>56</v>
       </c>
@@ -2632,9 +2643,15 @@
       <c r="F11" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
+      <c r="G11" s="72">
+        <v>290</v>
+      </c>
+      <c r="H11" s="72">
+        <v>450</v>
+      </c>
+      <c r="I11" s="72">
+        <v>650</v>
+      </c>
       <c r="J11" s="72"/>
       <c r="K11" s="72"/>
       <c r="L11" s="72"/>
@@ -2642,7 +2659,7 @@
       <c r="N11" s="82"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="119"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="90" t="s">
         <v>57</v>
       </c>
@@ -2668,7 +2685,7 @@
       <c r="N12" s="82"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="119"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="90" t="s">
         <v>58</v>
       </c>
@@ -2694,7 +2711,7 @@
       <c r="N13" s="82"/>
     </row>
     <row r="14" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="120"/>
+      <c r="A14" s="112"/>
       <c r="B14" s="91" t="s">
         <v>59</v>
       </c>
@@ -2720,7 +2737,7 @@
       <c r="N14" s="84"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="107" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -2738,7 +2755,9 @@
       <c r="F15" s="85">
         <v>1</v>
       </c>
-      <c r="G15" s="88"/>
+      <c r="G15" s="88" t="s">
+        <v>84</v>
+      </c>
       <c r="H15" s="88"/>
       <c r="I15" s="88"/>
       <c r="J15" s="88"/>
@@ -2748,7 +2767,7 @@
       <c r="N15" s="89"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="115"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="92" t="s">
         <v>59</v>
       </c>
@@ -2774,7 +2793,7 @@
       <c r="N16" s="89"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="116"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="92" t="s">
         <v>60</v>
       </c>
@@ -2800,7 +2819,7 @@
       <c r="N17" s="82"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="116"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="92" t="s">
         <v>61</v>
       </c>
@@ -2826,7 +2845,7 @@
       <c r="N18" s="82"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="116"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="92" t="s">
         <v>62</v>
       </c>
@@ -2852,7 +2871,7 @@
       <c r="N19" s="82"/>
     </row>
     <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="116"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="92" t="s">
         <v>63</v>
       </c>
@@ -2878,7 +2897,7 @@
       <c r="N20" s="82"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="116"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="92" t="s">
         <v>64</v>
       </c>
@@ -2904,7 +2923,7 @@
       <c r="N21" s="82"/>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="116"/>
+      <c r="A22" s="108"/>
       <c r="B22" s="92" t="s">
         <v>65</v>
       </c>
@@ -2930,7 +2949,7 @@
       <c r="N22" s="82"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="116"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="92" t="s">
         <v>66</v>
       </c>
@@ -2956,7 +2975,7 @@
       <c r="N23" s="82"/>
     </row>
     <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="116"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="92" t="s">
         <v>67</v>
       </c>
@@ -2982,7 +3001,7 @@
       <c r="N24" s="82"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="116"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="92" t="s">
         <v>74</v>
       </c>
@@ -3008,7 +3027,7 @@
       <c r="N25" s="82"/>
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="116"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="92" t="s">
         <v>75</v>
       </c>
@@ -3034,7 +3053,7 @@
       <c r="N26" s="82"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="116"/>
+      <c r="A27" s="108"/>
       <c r="B27" s="92" t="s">
         <v>78</v>
       </c>
@@ -3060,7 +3079,7 @@
       <c r="N27" s="82"/>
     </row>
     <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="116"/>
+      <c r="A28" s="108"/>
       <c r="B28" s="92" t="s">
         <v>79</v>
       </c>
@@ -3086,7 +3105,7 @@
       <c r="N28" s="82"/>
     </row>
     <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="116"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="92" t="s">
         <v>80</v>
       </c>
@@ -3112,7 +3131,7 @@
       <c r="N29" s="82"/>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="116"/>
+      <c r="A30" s="108"/>
       <c r="B30" s="92" t="s">
         <v>81</v>
       </c>
@@ -3138,7 +3157,7 @@
       <c r="N30" s="82"/>
     </row>
     <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="116"/>
+      <c r="A31" s="108"/>
       <c r="B31" s="92" t="s">
         <v>82</v>
       </c>
@@ -3164,7 +3183,7 @@
       <c r="N31" s="82"/>
     </row>
     <row r="32" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="117"/>
+      <c r="A32" s="109"/>
       <c r="B32" s="92" t="s">
         <v>83</v>
       </c>
@@ -3191,19 +3210,19 @@
     </row>
     <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:12" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B34" s="109" t="s">
+      <c r="B34" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="111"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="119"/>
+      <c r="L34" s="120"/>
     </row>
     <row r="35" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="73"/>
@@ -3217,18 +3236,18 @@
         <v>44</v>
       </c>
       <c r="F35" s="96"/>
-      <c r="G35" s="112" t="s">
+      <c r="G35" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="114"/>
-      <c r="I35" s="112" t="s">
+      <c r="H35" s="106"/>
+      <c r="I35" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="114"/>
-      <c r="K35" s="112" t="s">
+      <c r="J35" s="106"/>
+      <c r="K35" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="L35" s="113"/>
+      <c r="L35" s="105"/>
     </row>
     <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="74" t="s">
@@ -3532,17 +3551,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="A3:A14"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B34:L34"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="A3:A14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DeliverooAgent/report/agent_tests.xlsx
+++ b/DeliverooAgent/report/agent_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucaz\Desktop\ASA\Github\DeliverooAgent\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD1749D-4812-4696-B8B7-05904B17B560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98662D1B-866E-4FFB-9708-78C943970336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{065E83BE-B1A0-4502-AE30-4FB66E0EBDE0}"/>
+    <workbookView xWindow="-105" yWindow="-16200" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{065E83BE-B1A0-4502-AE30-4FB66E0EBDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Validation params" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="84">
   <si>
     <t>PARCELS_GENERATION_INTERVAL</t>
   </si>
@@ -289,9 +289,6 @@
   </si>
   <si>
     <t>Test 28</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1261,6 +1258,30 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1287,30 +1308,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2224,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0D301A-73A6-4526-833A-44D4BEDE7EE1}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,21 +2238,21 @@
   <sheetData>
     <row r="1" spans="1:14" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="95"/>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="117"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="108"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="93"/>
@@ -2271,25 +2268,25 @@
       <c r="F2" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="113" t="s">
+      <c r="G2" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113" t="s">
+      <c r="H2" s="104"/>
+      <c r="I2" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113" t="s">
+      <c r="J2" s="104"/>
+      <c r="K2" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113" t="s">
+      <c r="L2" s="104"/>
+      <c r="M2" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="114"/>
+      <c r="N2" s="105"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="118" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="97" t="s">
@@ -2333,7 +2330,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="111"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="90" t="s">
         <v>49</v>
       </c>
@@ -2375,7 +2372,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="111"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="90" t="s">
         <v>50</v>
       </c>
@@ -2417,7 +2414,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="111"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="90" t="s">
         <v>51</v>
       </c>
@@ -2459,7 +2456,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="111"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="90" t="s">
         <v>52</v>
       </c>
@@ -2501,7 +2498,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="111"/>
+      <c r="A8" s="119"/>
       <c r="B8" s="90" t="s">
         <v>53</v>
       </c>
@@ -2543,7 +2540,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="111"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="90" t="s">
         <v>54</v>
       </c>
@@ -2585,7 +2582,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="111"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="90" t="s">
         <v>55</v>
       </c>
@@ -2627,7 +2624,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111"/>
+      <c r="A11" s="119"/>
       <c r="B11" s="90" t="s">
         <v>56</v>
       </c>
@@ -2652,14 +2649,24 @@
       <c r="I11" s="72">
         <v>650</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="82"/>
+      <c r="J11" s="72">
+        <v>604</v>
+      </c>
+      <c r="K11" s="72">
+        <v>2977</v>
+      </c>
+      <c r="L11" s="72">
+        <v>2956</v>
+      </c>
+      <c r="M11" s="72">
+        <v>1080</v>
+      </c>
+      <c r="N11" s="82">
+        <v>961</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="90" t="s">
         <v>57</v>
       </c>
@@ -2675,7 +2682,9 @@
       <c r="F12" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="72"/>
+      <c r="G12" s="72">
+        <v>400</v>
+      </c>
       <c r="H12" s="72"/>
       <c r="I12" s="72"/>
       <c r="J12" s="72"/>
@@ -2685,7 +2694,7 @@
       <c r="N12" s="82"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="90" t="s">
         <v>58</v>
       </c>
@@ -2711,7 +2720,7 @@
       <c r="N13" s="82"/>
     </row>
     <row r="14" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="112"/>
+      <c r="A14" s="120"/>
       <c r="B14" s="91" t="s">
         <v>59</v>
       </c>
@@ -2737,7 +2746,7 @@
       <c r="N14" s="84"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="115" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -2755,9 +2764,7 @@
       <c r="F15" s="85">
         <v>1</v>
       </c>
-      <c r="G15" s="88" t="s">
-        <v>84</v>
-      </c>
+      <c r="G15" s="88"/>
       <c r="H15" s="88"/>
       <c r="I15" s="88"/>
       <c r="J15" s="88"/>
@@ -2767,7 +2774,7 @@
       <c r="N15" s="89"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="107"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="92" t="s">
         <v>59</v>
       </c>
@@ -2793,7 +2800,7 @@
       <c r="N16" s="89"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="108"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="92" t="s">
         <v>60</v>
       </c>
@@ -2819,7 +2826,7 @@
       <c r="N17" s="82"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="108"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="92" t="s">
         <v>61</v>
       </c>
@@ -2845,7 +2852,7 @@
       <c r="N18" s="82"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="108"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="92" t="s">
         <v>62</v>
       </c>
@@ -2871,7 +2878,7 @@
       <c r="N19" s="82"/>
     </row>
     <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="108"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="92" t="s">
         <v>63</v>
       </c>
@@ -2897,7 +2904,7 @@
       <c r="N20" s="82"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="108"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="92" t="s">
         <v>64</v>
       </c>
@@ -2923,7 +2930,7 @@
       <c r="N21" s="82"/>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="108"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="92" t="s">
         <v>65</v>
       </c>
@@ -2949,7 +2956,7 @@
       <c r="N22" s="82"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="108"/>
+      <c r="A23" s="116"/>
       <c r="B23" s="92" t="s">
         <v>66</v>
       </c>
@@ -2975,7 +2982,7 @@
       <c r="N23" s="82"/>
     </row>
     <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="108"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="92" t="s">
         <v>67</v>
       </c>
@@ -3001,7 +3008,7 @@
       <c r="N24" s="82"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="108"/>
+      <c r="A25" s="116"/>
       <c r="B25" s="92" t="s">
         <v>74</v>
       </c>
@@ -3027,7 +3034,7 @@
       <c r="N25" s="82"/>
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="108"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="92" t="s">
         <v>75</v>
       </c>
@@ -3053,7 +3060,7 @@
       <c r="N26" s="82"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="108"/>
+      <c r="A27" s="116"/>
       <c r="B27" s="92" t="s">
         <v>78</v>
       </c>
@@ -3079,7 +3086,7 @@
       <c r="N27" s="82"/>
     </row>
     <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="108"/>
+      <c r="A28" s="116"/>
       <c r="B28" s="92" t="s">
         <v>79</v>
       </c>
@@ -3105,7 +3112,7 @@
       <c r="N28" s="82"/>
     </row>
     <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="108"/>
+      <c r="A29" s="116"/>
       <c r="B29" s="92" t="s">
         <v>80</v>
       </c>
@@ -3131,7 +3138,7 @@
       <c r="N29" s="82"/>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="108"/>
+      <c r="A30" s="116"/>
       <c r="B30" s="92" t="s">
         <v>81</v>
       </c>
@@ -3157,7 +3164,7 @@
       <c r="N30" s="82"/>
     </row>
     <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="108"/>
+      <c r="A31" s="116"/>
       <c r="B31" s="92" t="s">
         <v>82</v>
       </c>
@@ -3183,7 +3190,7 @@
       <c r="N31" s="82"/>
     </row>
     <row r="32" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="109"/>
+      <c r="A32" s="117"/>
       <c r="B32" s="92" t="s">
         <v>83</v>
       </c>
@@ -3210,19 +3217,19 @@
     </row>
     <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:12" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B34" s="118" t="s">
+      <c r="B34" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="119"/>
-      <c r="K34" s="119"/>
-      <c r="L34" s="120"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="111"/>
     </row>
     <row r="35" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="73"/>
@@ -3236,18 +3243,18 @@
         <v>44</v>
       </c>
       <c r="F35" s="96"/>
-      <c r="G35" s="104" t="s">
+      <c r="G35" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="106"/>
-      <c r="I35" s="104" t="s">
+      <c r="H35" s="114"/>
+      <c r="I35" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="106"/>
-      <c r="K35" s="104" t="s">
+      <c r="J35" s="114"/>
+      <c r="K35" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="L35" s="105"/>
+      <c r="L35" s="113"/>
     </row>
     <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="74" t="s">
@@ -3551,17 +3558,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="A3:A14"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B34:L34"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="A3:A14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DeliverooAgent/report/agent_tests.xlsx
+++ b/DeliverooAgent/report/agent_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucaz\Desktop\ASA\Github\DeliverooAgent\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98662D1B-866E-4FFB-9708-78C943970336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C78F3B-9C45-4A4A-BD1F-6AFF813CB5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-16200" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{065E83BE-B1A0-4502-AE30-4FB66E0EBDE0}"/>
+    <workbookView xWindow="-105" yWindow="7740" windowWidth="14610" windowHeight="7845" activeTab="1" xr2:uid="{065E83BE-B1A0-4502-AE30-4FB66E0EBDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Validation params" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="82">
   <si>
     <t>PARCELS_GENERATION_INTERVAL</t>
   </si>
@@ -265,12 +265,6 @@
   </si>
   <si>
     <t>Test 22</t>
-  </si>
-  <si>
-    <t>LookAhead (only for PDDL)</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Test 23</t>
@@ -450,7 +444,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -952,24 +946,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1234,9 +1215,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1255,33 +1233,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1308,6 +1259,30 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2219,10 +2194,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0D301A-73A6-4526-833A-44D4BEDE7EE1}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:AA55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2230,31 +2205,30 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:27" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="95"/>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="108"/>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="115"/>
+    </row>
+    <row r="2" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="93"/>
       <c r="C2" s="94" t="s">
         <v>42</v>
@@ -2265,72 +2239,95 @@
       <c r="E2" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="104" t="s">
+      <c r="F2" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104" t="s">
+      <c r="G2" s="111"/>
+      <c r="H2" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104" t="s">
+      <c r="I2" s="111"/>
+      <c r="J2" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104" t="s">
+      <c r="K2" s="111"/>
+      <c r="L2" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="105"/>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="118" t="s">
+      <c r="M2" s="112"/>
+    </row>
+    <row r="3" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="98" t="b">
+      <c r="C3" s="97" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="99">
+      <c r="D3" s="98">
         <v>0.5</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="101">
+      <c r="F3" s="100">
+        <v>520</v>
+      </c>
+      <c r="G3" s="100">
+        <v>460</v>
+      </c>
+      <c r="H3" s="100">
+        <v>728</v>
+      </c>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="101"/>
+      <c r="O3" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="98">
+        <v>0.5</v>
+      </c>
+      <c r="S3" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="100">
         <v>340</v>
       </c>
-      <c r="H3" s="101">
+      <c r="U3" s="100">
         <v>400</v>
       </c>
-      <c r="I3" s="101">
+      <c r="V3" s="100">
         <v>602</v>
       </c>
-      <c r="J3" s="101">
+      <c r="W3" s="100">
         <v>699</v>
       </c>
-      <c r="K3" s="101">
+      <c r="X3" s="100">
         <v>3054</v>
       </c>
-      <c r="L3" s="101">
+      <c r="Y3" s="100">
         <v>2483</v>
       </c>
-      <c r="M3" s="101">
+      <c r="Z3" s="100">
         <v>755</v>
       </c>
-      <c r="N3" s="102">
+      <c r="AA3" s="101">
         <v>754</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="119"/>
+    <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="109"/>
       <c r="B4" s="90" t="s">
         <v>49</v>
       </c>
@@ -2343,36 +2340,54 @@
       <c r="E4" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="72">
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="82"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="S4" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="72">
         <v>350</v>
       </c>
-      <c r="H4" s="72">
+      <c r="U4" s="72">
         <v>440</v>
       </c>
-      <c r="I4" s="72">
+      <c r="V4" s="72">
         <v>633</v>
       </c>
-      <c r="J4" s="72">
+      <c r="W4" s="72">
         <v>657</v>
       </c>
-      <c r="K4" s="72">
+      <c r="X4" s="72">
         <v>3549</v>
       </c>
-      <c r="L4" s="72">
+      <c r="Y4" s="72">
         <v>2688</v>
       </c>
-      <c r="M4" s="72">
+      <c r="Z4" s="72">
         <v>692</v>
       </c>
-      <c r="N4" s="82">
+      <c r="AA4" s="82">
         <v>869</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="119"/>
+    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="109"/>
       <c r="B5" s="90" t="s">
         <v>50</v>
       </c>
@@ -2385,36 +2400,54 @@
       <c r="E5" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="72">
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="82"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="66" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="67">
+        <v>0.75</v>
+      </c>
+      <c r="S5" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="72">
         <v>390</v>
       </c>
-      <c r="H5" s="72">
+      <c r="U5" s="72">
         <v>330</v>
       </c>
-      <c r="I5" s="72">
+      <c r="V5" s="72">
         <v>589</v>
       </c>
-      <c r="J5" s="72">
+      <c r="W5" s="72">
         <v>525</v>
       </c>
-      <c r="K5" s="72">
+      <c r="X5" s="72">
         <v>2785</v>
       </c>
-      <c r="L5" s="72">
+      <c r="Y5" s="72">
         <v>2331</v>
       </c>
-      <c r="M5" s="72">
+      <c r="Z5" s="72">
         <v>882</v>
       </c>
-      <c r="N5" s="82">
+      <c r="AA5" s="82">
         <v>926</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="119"/>
+    <row r="6" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="109"/>
       <c r="B6" s="90" t="s">
         <v>51</v>
       </c>
@@ -2427,36 +2460,54 @@
       <c r="E6" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="72">
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="82"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="67">
+        <v>0.75</v>
+      </c>
+      <c r="S6" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" s="72">
         <v>240</v>
       </c>
-      <c r="H6" s="72">
+      <c r="U6" s="72">
         <v>380</v>
       </c>
-      <c r="I6" s="72">
+      <c r="V6" s="72">
         <v>563</v>
       </c>
-      <c r="J6" s="72">
+      <c r="W6" s="72">
         <v>570</v>
       </c>
-      <c r="K6" s="72">
+      <c r="X6" s="72">
         <v>2933</v>
       </c>
-      <c r="L6" s="72">
+      <c r="Y6" s="72">
         <v>2429</v>
       </c>
-      <c r="M6" s="72">
+      <c r="Z6" s="72">
         <v>805</v>
       </c>
-      <c r="N6" s="82">
+      <c r="AA6" s="82">
         <v>1026</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="119"/>
+    <row r="7" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="109"/>
       <c r="B7" s="90" t="s">
         <v>52</v>
       </c>
@@ -2469,36 +2520,54 @@
       <c r="E7" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="72">
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="82"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="66" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="67">
+        <v>0.25</v>
+      </c>
+      <c r="S7" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" s="72">
         <v>250</v>
       </c>
-      <c r="H7" s="72">
+      <c r="U7" s="72">
         <v>420</v>
       </c>
-      <c r="I7" s="72">
+      <c r="V7" s="72">
         <v>526</v>
       </c>
-      <c r="J7" s="72">
+      <c r="W7" s="72">
         <v>552</v>
       </c>
-      <c r="K7" s="72">
+      <c r="X7" s="72">
         <v>3031</v>
       </c>
-      <c r="L7" s="72">
+      <c r="Y7" s="72">
         <v>2771</v>
       </c>
-      <c r="M7" s="72">
+      <c r="Z7" s="72">
         <v>1014</v>
       </c>
-      <c r="N7" s="82">
+      <c r="AA7" s="82">
         <v>833</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="119"/>
+    <row r="8" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="109"/>
       <c r="B8" s="90" t="s">
         <v>53</v>
       </c>
@@ -2511,36 +2580,54 @@
       <c r="E8" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="72">
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="82"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" s="67">
+        <v>0.25</v>
+      </c>
+      <c r="S8" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="T8" s="72">
         <v>480</v>
       </c>
-      <c r="H8" s="72">
+      <c r="U8" s="72">
         <v>250</v>
       </c>
-      <c r="I8" s="72">
+      <c r="V8" s="72">
         <v>552</v>
       </c>
-      <c r="J8" s="72">
+      <c r="W8" s="72">
         <v>545</v>
       </c>
-      <c r="K8" s="72">
+      <c r="X8" s="72">
         <v>2937</v>
       </c>
-      <c r="L8" s="72">
+      <c r="Y8" s="72">
         <v>3936</v>
       </c>
-      <c r="M8" s="72">
+      <c r="Z8" s="72">
         <v>718</v>
       </c>
-      <c r="N8" s="82">
+      <c r="AA8" s="82">
         <v>948</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="119"/>
+    <row r="9" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="109"/>
       <c r="B9" s="90" t="s">
         <v>54</v>
       </c>
@@ -2553,36 +2640,54 @@
       <c r="E9" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="72">
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="82"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="66" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="67">
+        <v>0</v>
+      </c>
+      <c r="S9" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="T9" s="72">
         <v>360</v>
       </c>
-      <c r="H9" s="72">
+      <c r="U9" s="72">
         <v>360</v>
       </c>
-      <c r="I9" s="72">
+      <c r="V9" s="72">
         <v>485</v>
       </c>
-      <c r="J9" s="72">
+      <c r="W9" s="72">
         <v>550</v>
       </c>
-      <c r="K9" s="72">
+      <c r="X9" s="72">
         <v>2738</v>
       </c>
-      <c r="L9" s="72">
+      <c r="Y9" s="72">
         <v>2875</v>
       </c>
-      <c r="M9" s="72">
+      <c r="Z9" s="72">
         <v>1108</v>
       </c>
-      <c r="N9" s="82">
+      <c r="AA9" s="82">
         <v>1051</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="119"/>
+    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="109"/>
       <c r="B10" s="90" t="s">
         <v>55</v>
       </c>
@@ -2595,36 +2700,54 @@
       <c r="E10" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="72">
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="82"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" s="67">
+        <v>0</v>
+      </c>
+      <c r="S10" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="T10" s="72">
         <v>350</v>
       </c>
-      <c r="H10" s="72">
+      <c r="U10" s="72">
         <v>370</v>
       </c>
-      <c r="I10" s="72">
+      <c r="V10" s="72">
         <v>605</v>
       </c>
-      <c r="J10" s="72">
+      <c r="W10" s="72">
         <v>641</v>
       </c>
-      <c r="K10" s="72">
+      <c r="X10" s="72">
         <v>3236</v>
       </c>
-      <c r="L10" s="72">
+      <c r="Y10" s="72">
         <v>2990</v>
       </c>
-      <c r="M10" s="72">
+      <c r="Z10" s="72">
         <v>1253</v>
       </c>
-      <c r="N10" s="82">
+      <c r="AA10" s="82">
         <v>1414</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="119"/>
+    <row r="11" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="109"/>
       <c r="B11" s="90" t="s">
         <v>56</v>
       </c>
@@ -2637,36 +2760,54 @@
       <c r="E11" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="72">
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="82"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="66" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" s="67">
+        <v>1</v>
+      </c>
+      <c r="S11" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="T11" s="72">
         <v>290</v>
       </c>
-      <c r="H11" s="72">
+      <c r="U11" s="72">
         <v>450</v>
       </c>
-      <c r="I11" s="72">
+      <c r="V11" s="72">
         <v>650</v>
       </c>
-      <c r="J11" s="72">
+      <c r="W11" s="72">
         <v>604</v>
       </c>
-      <c r="K11" s="72">
+      <c r="X11" s="72">
         <v>2977</v>
       </c>
-      <c r="L11" s="72">
+      <c r="Y11" s="72">
         <v>2956</v>
       </c>
-      <c r="M11" s="72">
+      <c r="Z11" s="72">
         <v>1080</v>
       </c>
-      <c r="N11" s="82">
+      <c r="AA11" s="82">
         <v>961</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="119"/>
+    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="109"/>
       <c r="B12" s="90" t="s">
         <v>57</v>
       </c>
@@ -2679,22 +2820,54 @@
       <c r="E12" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="72">
-        <v>400</v>
-      </c>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="72"/>
       <c r="I12" s="72"/>
       <c r="J12" s="72"/>
       <c r="K12" s="72"/>
       <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="82"/>
-    </row>
-    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="119"/>
+      <c r="M12" s="82"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" s="67">
+        <v>1</v>
+      </c>
+      <c r="S12" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="T12" s="72">
+        <v>400</v>
+      </c>
+      <c r="U12" s="72">
+        <v>360</v>
+      </c>
+      <c r="V12" s="72">
+        <v>576</v>
+      </c>
+      <c r="W12" s="72">
+        <v>682</v>
+      </c>
+      <c r="X12" s="72">
+        <v>3333</v>
+      </c>
+      <c r="Y12" s="72">
+        <v>2803</v>
+      </c>
+      <c r="Z12" s="72">
+        <v>1164</v>
+      </c>
+      <c r="AA12" s="82">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="109"/>
       <c r="B13" s="90" t="s">
         <v>58</v>
       </c>
@@ -2707,20 +2880,54 @@
       <c r="E13" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="85" t="s">
-        <v>77</v>
-      </c>
+      <c r="F13" s="72"/>
       <c r="G13" s="72"/>
       <c r="H13" s="72"/>
       <c r="I13" s="72"/>
       <c r="J13" s="72"/>
       <c r="K13" s="72"/>
       <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="82"/>
-    </row>
-    <row r="14" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="120"/>
+      <c r="M13" s="82"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="S13" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="T13" s="72">
+        <v>410</v>
+      </c>
+      <c r="U13" s="72">
+        <v>390</v>
+      </c>
+      <c r="V13" s="72">
+        <v>589</v>
+      </c>
+      <c r="W13" s="72">
+        <v>641</v>
+      </c>
+      <c r="X13" s="72">
+        <v>2540</v>
+      </c>
+      <c r="Y13" s="72">
+        <v>3193</v>
+      </c>
+      <c r="Z13" s="72">
+        <v>948</v>
+      </c>
+      <c r="AA13" s="82">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="110"/>
       <c r="B14" s="91" t="s">
         <v>59</v>
       </c>
@@ -2733,20 +2940,42 @@
       <c r="E14" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="103" t="s">
-        <v>77</v>
-      </c>
+      <c r="F14" s="83"/>
       <c r="G14" s="83"/>
       <c r="H14" s="83"/>
       <c r="I14" s="83"/>
       <c r="J14" s="83"/>
       <c r="K14" s="83"/>
       <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="84"/>
-    </row>
-    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="115" t="s">
+      <c r="M14" s="84"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="S14" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="T14" s="83">
+        <v>380</v>
+      </c>
+      <c r="U14" s="83">
+        <v>320</v>
+      </c>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="84"/>
+    </row>
+    <row r="15" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="105" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -2761,20 +2990,17 @@
       <c r="E15" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="85">
-        <v>1</v>
-      </c>
+      <c r="F15" s="88"/>
       <c r="G15" s="88"/>
       <c r="H15" s="88"/>
       <c r="I15" s="88"/>
       <c r="J15" s="88"/>
       <c r="K15" s="88"/>
       <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="89"/>
-    </row>
-    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="115"/>
+      <c r="M15" s="89"/>
+    </row>
+    <row r="16" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="105"/>
       <c r="B16" s="92" t="s">
         <v>59</v>
       </c>
@@ -2787,20 +3013,17 @@
       <c r="E16" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="85">
-        <v>0</v>
-      </c>
+      <c r="F16" s="88"/>
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88"/>
       <c r="J16" s="88"/>
       <c r="K16" s="88"/>
       <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="89"/>
-    </row>
-    <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="116"/>
+      <c r="M16" s="89"/>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="106"/>
       <c r="B17" s="92" t="s">
         <v>60</v>
       </c>
@@ -2813,20 +3036,17 @@
       <c r="E17" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="66">
-        <v>1</v>
-      </c>
+      <c r="F17" s="72"/>
       <c r="G17" s="72"/>
       <c r="H17" s="72"/>
       <c r="I17" s="72"/>
       <c r="J17" s="72"/>
       <c r="K17" s="72"/>
       <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="82"/>
-    </row>
-    <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="116"/>
+      <c r="M17" s="82"/>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="106"/>
       <c r="B18" s="92" t="s">
         <v>61</v>
       </c>
@@ -2839,20 +3059,17 @@
       <c r="E18" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="66">
-        <v>0</v>
-      </c>
+      <c r="F18" s="72"/>
       <c r="G18" s="72"/>
       <c r="H18" s="72"/>
       <c r="I18" s="72"/>
       <c r="J18" s="72"/>
       <c r="K18" s="72"/>
       <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="82"/>
-    </row>
-    <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="116"/>
+      <c r="M18" s="82"/>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="106"/>
       <c r="B19" s="92" t="s">
         <v>62</v>
       </c>
@@ -2865,20 +3082,17 @@
       <c r="E19" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="66">
-        <v>1</v>
-      </c>
+      <c r="F19" s="72"/>
       <c r="G19" s="72"/>
       <c r="H19" s="72"/>
       <c r="I19" s="72"/>
       <c r="J19" s="72"/>
       <c r="K19" s="72"/>
       <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="82"/>
-    </row>
-    <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="116"/>
+      <c r="M19" s="82"/>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="106"/>
       <c r="B20" s="92" t="s">
         <v>63</v>
       </c>
@@ -2891,20 +3105,17 @@
       <c r="E20" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="66">
-        <v>0</v>
-      </c>
+      <c r="F20" s="72"/>
       <c r="G20" s="72"/>
       <c r="H20" s="72"/>
       <c r="I20" s="72"/>
       <c r="J20" s="72"/>
       <c r="K20" s="72"/>
       <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="82"/>
-    </row>
-    <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="116"/>
+      <c r="M20" s="82"/>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="106"/>
       <c r="B21" s="92" t="s">
         <v>64</v>
       </c>
@@ -2917,20 +3128,17 @@
       <c r="E21" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="66">
-        <v>1</v>
-      </c>
+      <c r="F21" s="72"/>
       <c r="G21" s="72"/>
       <c r="H21" s="72"/>
       <c r="I21" s="72"/>
       <c r="J21" s="72"/>
       <c r="K21" s="72"/>
       <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="82"/>
-    </row>
-    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="116"/>
+      <c r="M21" s="82"/>
+    </row>
+    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="106"/>
       <c r="B22" s="92" t="s">
         <v>65</v>
       </c>
@@ -2943,20 +3151,17 @@
       <c r="E22" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="66">
-        <v>0</v>
-      </c>
+      <c r="F22" s="72"/>
       <c r="G22" s="72"/>
       <c r="H22" s="72"/>
       <c r="I22" s="72"/>
       <c r="J22" s="72"/>
       <c r="K22" s="72"/>
       <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="82"/>
-    </row>
-    <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="116"/>
+      <c r="M22" s="82"/>
+    </row>
+    <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="106"/>
       <c r="B23" s="92" t="s">
         <v>66</v>
       </c>
@@ -2969,20 +3174,17 @@
       <c r="E23" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="66">
-        <v>1</v>
-      </c>
+      <c r="F23" s="72"/>
       <c r="G23" s="72"/>
       <c r="H23" s="72"/>
       <c r="I23" s="72"/>
       <c r="J23" s="72"/>
       <c r="K23" s="72"/>
       <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="82"/>
-    </row>
-    <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="116"/>
+      <c r="M23" s="82"/>
+    </row>
+    <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="106"/>
       <c r="B24" s="92" t="s">
         <v>67</v>
       </c>
@@ -2995,20 +3197,17 @@
       <c r="E24" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="66">
-        <v>0</v>
-      </c>
+      <c r="F24" s="72"/>
       <c r="G24" s="72"/>
       <c r="H24" s="72"/>
       <c r="I24" s="72"/>
       <c r="J24" s="72"/>
       <c r="K24" s="72"/>
       <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="82"/>
-    </row>
-    <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="116"/>
+      <c r="M24" s="82"/>
+    </row>
+    <row r="25" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="106"/>
       <c r="B25" s="92" t="s">
         <v>74</v>
       </c>
@@ -3021,20 +3220,17 @@
       <c r="E25" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="66">
-        <v>1</v>
-      </c>
+      <c r="F25" s="72"/>
       <c r="G25" s="72"/>
       <c r="H25" s="72"/>
       <c r="I25" s="72"/>
       <c r="J25" s="72"/>
       <c r="K25" s="72"/>
       <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="82"/>
-    </row>
-    <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="116"/>
+      <c r="M25" s="82"/>
+    </row>
+    <row r="26" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="106"/>
       <c r="B26" s="92" t="s">
         <v>75</v>
       </c>
@@ -3047,22 +3243,19 @@
       <c r="E26" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="66">
-        <v>0</v>
-      </c>
+      <c r="F26" s="72"/>
       <c r="G26" s="72"/>
       <c r="H26" s="72"/>
       <c r="I26" s="72"/>
       <c r="J26" s="72"/>
       <c r="K26" s="72"/>
       <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="82"/>
-    </row>
-    <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="116"/>
+      <c r="M26" s="82"/>
+    </row>
+    <row r="27" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="106"/>
       <c r="B27" s="92" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C27" s="66" t="b">
         <v>0</v>
@@ -3073,22 +3266,19 @@
       <c r="E27" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="66">
-        <v>1</v>
-      </c>
+      <c r="F27" s="72"/>
       <c r="G27" s="72"/>
       <c r="H27" s="72"/>
       <c r="I27" s="72"/>
       <c r="J27" s="72"/>
       <c r="K27" s="72"/>
       <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="82"/>
-    </row>
-    <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="116"/>
+      <c r="M27" s="82"/>
+    </row>
+    <row r="28" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="106"/>
       <c r="B28" s="92" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C28" s="66" t="b">
         <v>1</v>
@@ -3099,22 +3289,19 @@
       <c r="E28" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="66">
-        <v>1</v>
-      </c>
+      <c r="F28" s="72"/>
       <c r="G28" s="72"/>
       <c r="H28" s="72"/>
       <c r="I28" s="72"/>
       <c r="J28" s="72"/>
       <c r="K28" s="72"/>
       <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="82"/>
-    </row>
-    <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="116"/>
+      <c r="M28" s="82"/>
+    </row>
+    <row r="29" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="106"/>
       <c r="B29" s="92" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C29" s="66" t="b">
         <v>0</v>
@@ -3125,22 +3312,19 @@
       <c r="E29" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="66">
-        <v>1</v>
-      </c>
+      <c r="F29" s="72"/>
       <c r="G29" s="72"/>
       <c r="H29" s="72"/>
       <c r="I29" s="72"/>
       <c r="J29" s="72"/>
       <c r="K29" s="72"/>
       <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="82"/>
-    </row>
-    <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="116"/>
+      <c r="M29" s="82"/>
+    </row>
+    <row r="30" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="106"/>
       <c r="B30" s="92" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C30" s="66" t="b">
         <v>1</v>
@@ -3151,22 +3335,19 @@
       <c r="E30" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="66">
-        <v>1</v>
-      </c>
+      <c r="F30" s="72"/>
       <c r="G30" s="72"/>
       <c r="H30" s="72"/>
       <c r="I30" s="72"/>
       <c r="J30" s="72"/>
       <c r="K30" s="72"/>
       <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="82"/>
-    </row>
-    <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="116"/>
+      <c r="M30" s="82"/>
+    </row>
+    <row r="31" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="106"/>
       <c r="B31" s="92" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C31" s="66" t="b">
         <v>1</v>
@@ -3177,22 +3358,19 @@
       <c r="E31" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="66">
-        <v>1</v>
-      </c>
+      <c r="F31" s="72"/>
       <c r="G31" s="72"/>
       <c r="H31" s="72"/>
       <c r="I31" s="72"/>
       <c r="J31" s="72"/>
       <c r="K31" s="72"/>
       <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="82"/>
-    </row>
-    <row r="32" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="117"/>
+      <c r="M31" s="82"/>
+    </row>
+    <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="107"/>
       <c r="B32" s="92" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C32" s="69" t="b">
         <v>1</v>
@@ -3203,35 +3381,31 @@
       <c r="E32" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="69">
-        <v>1</v>
-      </c>
+      <c r="F32" s="83"/>
       <c r="G32" s="83"/>
       <c r="H32" s="83"/>
       <c r="I32" s="83"/>
       <c r="J32" s="83"/>
       <c r="K32" s="83"/>
       <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="84"/>
-    </row>
-    <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:12" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B34" s="109" t="s">
+      <c r="M32" s="84"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:11" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="B34" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="111"/>
-    </row>
-    <row r="35" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="118"/>
+    </row>
+    <row r="35" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="73"/>
       <c r="C35" s="65" t="s">
         <v>42</v>
@@ -3242,333 +3416,313 @@
       <c r="E35" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="96"/>
-      <c r="G35" s="112" t="s">
+      <c r="F35" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="114"/>
-      <c r="I35" s="112" t="s">
+      <c r="G35" s="104"/>
+      <c r="H35" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="114"/>
-      <c r="K35" s="112" t="s">
+      <c r="I35" s="104"/>
+      <c r="J35" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="L35" s="113"/>
-    </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K35" s="103"/>
+    </row>
+    <row r="36" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="74" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="76"/>
       <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
+      <c r="F36" s="78"/>
       <c r="G36" s="78"/>
       <c r="H36" s="78"/>
       <c r="I36" s="78"/>
       <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="79"/>
-    </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K36" s="79"/>
+    </row>
+    <row r="37" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="74" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="76"/>
       <c r="D37" s="76"/>
       <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
+      <c r="F37" s="78"/>
       <c r="G37" s="78"/>
       <c r="H37" s="78"/>
       <c r="I37" s="78"/>
       <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="79"/>
-    </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K37" s="79"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="74" t="s">
         <v>50</v>
       </c>
       <c r="C38" s="76"/>
       <c r="D38" s="76"/>
       <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
+      <c r="F38" s="78"/>
       <c r="G38" s="78"/>
       <c r="H38" s="78"/>
       <c r="I38" s="78"/>
       <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="79"/>
-    </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K38" s="79"/>
+    </row>
+    <row r="39" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="74" t="s">
         <v>51</v>
       </c>
       <c r="C39" s="76"/>
       <c r="D39" s="76"/>
       <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
+      <c r="F39" s="78"/>
       <c r="G39" s="78"/>
       <c r="H39" s="78"/>
       <c r="I39" s="78"/>
       <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="79"/>
-    </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K39" s="79"/>
+    </row>
+    <row r="40" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="74" t="s">
         <v>52</v>
       </c>
       <c r="C40" s="76"/>
       <c r="D40" s="76"/>
       <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
+      <c r="F40" s="78"/>
       <c r="G40" s="78"/>
       <c r="H40" s="78"/>
       <c r="I40" s="78"/>
       <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="79"/>
-    </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K40" s="79"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="74" t="s">
         <v>53</v>
       </c>
       <c r="C41" s="76"/>
       <c r="D41" s="76"/>
       <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
+      <c r="F41" s="78"/>
       <c r="G41" s="78"/>
       <c r="H41" s="78"/>
       <c r="I41" s="78"/>
       <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="79"/>
-    </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K41" s="79"/>
+    </row>
+    <row r="42" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="74" t="s">
         <v>54</v>
       </c>
       <c r="C42" s="76"/>
       <c r="D42" s="76"/>
       <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
+      <c r="F42" s="78"/>
       <c r="G42" s="78"/>
       <c r="H42" s="78"/>
       <c r="I42" s="78"/>
       <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="79"/>
-    </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K42" s="79"/>
+    </row>
+    <row r="43" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="74" t="s">
         <v>55</v>
       </c>
       <c r="C43" s="76"/>
       <c r="D43" s="76"/>
       <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
+      <c r="F43" s="78"/>
       <c r="G43" s="78"/>
       <c r="H43" s="78"/>
       <c r="I43" s="78"/>
       <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="79"/>
-    </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K43" s="79"/>
+    </row>
+    <row r="44" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="74" t="s">
         <v>56</v>
       </c>
       <c r="C44" s="76"/>
       <c r="D44" s="76"/>
       <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
+      <c r="F44" s="78"/>
       <c r="G44" s="78"/>
       <c r="H44" s="78"/>
       <c r="I44" s="78"/>
       <c r="J44" s="78"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="79"/>
-    </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K44" s="79"/>
+    </row>
+    <row r="45" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="74" t="s">
         <v>57</v>
       </c>
       <c r="C45" s="76"/>
       <c r="D45" s="76"/>
       <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
+      <c r="F45" s="78"/>
       <c r="G45" s="78"/>
       <c r="H45" s="78"/>
       <c r="I45" s="78"/>
       <c r="J45" s="78"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="79"/>
-    </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K45" s="79"/>
+    </row>
+    <row r="46" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="74" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="76"/>
       <c r="D46" s="76"/>
       <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
+      <c r="F46" s="78"/>
       <c r="G46" s="78"/>
       <c r="H46" s="78"/>
       <c r="I46" s="78"/>
       <c r="J46" s="78"/>
-      <c r="K46" s="78"/>
-      <c r="L46" s="79"/>
-    </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K46" s="79"/>
+    </row>
+    <row r="47" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="74" t="s">
         <v>59</v>
       </c>
       <c r="C47" s="76"/>
       <c r="D47" s="76"/>
       <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
+      <c r="F47" s="78"/>
       <c r="G47" s="78"/>
       <c r="H47" s="78"/>
       <c r="I47" s="78"/>
       <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="79"/>
-    </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K47" s="79"/>
+    </row>
+    <row r="48" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="74" t="s">
         <v>60</v>
       </c>
       <c r="C48" s="76"/>
       <c r="D48" s="76"/>
       <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
+      <c r="F48" s="78"/>
       <c r="G48" s="78"/>
       <c r="H48" s="78"/>
       <c r="I48" s="78"/>
       <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="79"/>
-    </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K48" s="79"/>
+    </row>
+    <row r="49" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="74" t="s">
         <v>61</v>
       </c>
       <c r="C49" s="76"/>
       <c r="D49" s="76"/>
       <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
+      <c r="F49" s="78"/>
       <c r="G49" s="78"/>
       <c r="H49" s="78"/>
       <c r="I49" s="78"/>
       <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="79"/>
-    </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K49" s="79"/>
+    </row>
+    <row r="50" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="74" t="s">
         <v>62</v>
       </c>
       <c r="C50" s="76"/>
       <c r="D50" s="76"/>
       <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
+      <c r="F50" s="78"/>
       <c r="G50" s="78"/>
       <c r="H50" s="78"/>
       <c r="I50" s="78"/>
       <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="79"/>
-    </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K50" s="79"/>
+    </row>
+    <row r="51" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="74" t="s">
         <v>63</v>
       </c>
       <c r="C51" s="76"/>
       <c r="D51" s="76"/>
       <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
+      <c r="F51" s="78"/>
       <c r="G51" s="78"/>
       <c r="H51" s="78"/>
       <c r="I51" s="78"/>
       <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="79"/>
-    </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K51" s="79"/>
+    </row>
+    <row r="52" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="74" t="s">
         <v>64</v>
       </c>
       <c r="C52" s="76"/>
       <c r="D52" s="76"/>
       <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
+      <c r="F52" s="78"/>
       <c r="G52" s="78"/>
       <c r="H52" s="78"/>
       <c r="I52" s="78"/>
       <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="79"/>
-    </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K52" s="79"/>
+    </row>
+    <row r="53" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="74" t="s">
         <v>65</v>
       </c>
       <c r="C53" s="76"/>
       <c r="D53" s="76"/>
       <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
+      <c r="F53" s="78"/>
       <c r="G53" s="78"/>
       <c r="H53" s="78"/>
       <c r="I53" s="78"/>
       <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="79"/>
-    </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K53" s="79"/>
+    </row>
+    <row r="54" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="74" t="s">
         <v>66</v>
       </c>
       <c r="C54" s="76"/>
       <c r="D54" s="76"/>
       <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
+      <c r="F54" s="78"/>
       <c r="G54" s="78"/>
       <c r="H54" s="78"/>
       <c r="I54" s="78"/>
       <c r="J54" s="78"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="79"/>
-    </row>
-    <row r="55" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K54" s="79"/>
+    </row>
+    <row r="55" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="75" t="s">
         <v>67</v>
       </c>
       <c r="C55" s="77"/>
       <c r="D55" s="77"/>
       <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
+      <c r="F55" s="80"/>
       <c r="G55" s="80"/>
       <c r="H55" s="80"/>
       <c r="I55" s="80"/>
       <c r="J55" s="80"/>
-      <c r="K55" s="80"/>
-      <c r="L55" s="81"/>
+      <c r="K55" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
+  <mergeCells count="12">
+    <mergeCell ref="O3:O14"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="A15:A32"/>
     <mergeCell ref="A3:A14"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DeliverooAgent/report/agent_tests.xlsx
+++ b/DeliverooAgent/report/agent_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucaz\Desktop\ASA\Github\DeliverooAgent\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C78F3B-9C45-4A4A-BD1F-6AFF813CB5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6D248C-F079-440C-BABB-B6B3BACDE963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="7740" windowWidth="14610" windowHeight="7845" activeTab="1" xr2:uid="{065E83BE-B1A0-4502-AE30-4FB66E0EBDE0}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{065E83BE-B1A0-4502-AE30-4FB66E0EBDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Validation params" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="82">
   <si>
     <t>PARCELS_GENERATION_INTERVAL</t>
   </si>
@@ -1233,6 +1233,39 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1250,39 +1283,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2196,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0D301A-73A6-4526-833A-44D4BEDE7EE1}">
   <dimension ref="A1:AA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,20 +2213,20 @@
   <sheetData>
     <row r="1" spans="1:27" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="95"/>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="115"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="109"/>
     </row>
     <row r="2" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="93"/>
@@ -2239,25 +2239,41 @@
       <c r="E2" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="F2" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111" t="s">
+      <c r="G2" s="105"/>
+      <c r="H2" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111" t="s">
+      <c r="I2" s="105"/>
+      <c r="J2" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111" t="s">
+      <c r="K2" s="105"/>
+      <c r="L2" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="112"/>
+      <c r="M2" s="106"/>
+      <c r="T2" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="106"/>
     </row>
     <row r="3" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="102" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="96" t="s">
@@ -2273,20 +2289,22 @@
         <v>46</v>
       </c>
       <c r="F3" s="100">
-        <v>520</v>
+        <v>380</v>
       </c>
       <c r="G3" s="100">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="H3" s="100">
-        <v>728</v>
-      </c>
-      <c r="I3" s="100"/>
+        <v>668</v>
+      </c>
+      <c r="I3" s="100">
+        <v>657</v>
+      </c>
       <c r="J3" s="100"/>
       <c r="K3" s="100"/>
       <c r="L3" s="100"/>
       <c r="M3" s="101"/>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="102" t="s">
         <v>45</v>
       </c>
       <c r="P3" s="96" t="s">
@@ -2327,7 +2345,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="109"/>
+      <c r="A4" s="103"/>
       <c r="B4" s="90" t="s">
         <v>49</v>
       </c>
@@ -2348,7 +2366,7 @@
       <c r="K4" s="72"/>
       <c r="L4" s="72"/>
       <c r="M4" s="82"/>
-      <c r="O4" s="109"/>
+      <c r="O4" s="103"/>
       <c r="P4" s="90" t="s">
         <v>49</v>
       </c>
@@ -2387,7 +2405,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="90" t="s">
         <v>50</v>
       </c>
@@ -2408,7 +2426,7 @@
       <c r="K5" s="72"/>
       <c r="L5" s="72"/>
       <c r="M5" s="82"/>
-      <c r="O5" s="109"/>
+      <c r="O5" s="103"/>
       <c r="P5" s="90" t="s">
         <v>50</v>
       </c>
@@ -2447,7 +2465,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="109"/>
+      <c r="A6" s="103"/>
       <c r="B6" s="90" t="s">
         <v>51</v>
       </c>
@@ -2468,7 +2486,7 @@
       <c r="K6" s="72"/>
       <c r="L6" s="72"/>
       <c r="M6" s="82"/>
-      <c r="O6" s="109"/>
+      <c r="O6" s="103"/>
       <c r="P6" s="90" t="s">
         <v>51</v>
       </c>
@@ -2507,7 +2525,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="109"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="90" t="s">
         <v>52</v>
       </c>
@@ -2528,7 +2546,7 @@
       <c r="K7" s="72"/>
       <c r="L7" s="72"/>
       <c r="M7" s="82"/>
-      <c r="O7" s="109"/>
+      <c r="O7" s="103"/>
       <c r="P7" s="90" t="s">
         <v>52</v>
       </c>
@@ -2567,7 +2585,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="109"/>
+      <c r="A8" s="103"/>
       <c r="B8" s="90" t="s">
         <v>53</v>
       </c>
@@ -2588,7 +2606,7 @@
       <c r="K8" s="72"/>
       <c r="L8" s="72"/>
       <c r="M8" s="82"/>
-      <c r="O8" s="109"/>
+      <c r="O8" s="103"/>
       <c r="P8" s="90" t="s">
         <v>53</v>
       </c>
@@ -2627,7 +2645,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="90" t="s">
         <v>54</v>
       </c>
@@ -2648,7 +2666,7 @@
       <c r="K9" s="72"/>
       <c r="L9" s="72"/>
       <c r="M9" s="82"/>
-      <c r="O9" s="109"/>
+      <c r="O9" s="103"/>
       <c r="P9" s="90" t="s">
         <v>54</v>
       </c>
@@ -2687,7 +2705,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
+      <c r="A10" s="103"/>
       <c r="B10" s="90" t="s">
         <v>55</v>
       </c>
@@ -2708,7 +2726,7 @@
       <c r="K10" s="72"/>
       <c r="L10" s="72"/>
       <c r="M10" s="82"/>
-      <c r="O10" s="109"/>
+      <c r="O10" s="103"/>
       <c r="P10" s="90" t="s">
         <v>55</v>
       </c>
@@ -2747,7 +2765,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="109"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="90" t="s">
         <v>56</v>
       </c>
@@ -2768,7 +2786,7 @@
       <c r="K11" s="72"/>
       <c r="L11" s="72"/>
       <c r="M11" s="82"/>
-      <c r="O11" s="109"/>
+      <c r="O11" s="103"/>
       <c r="P11" s="90" t="s">
         <v>56</v>
       </c>
@@ -2807,7 +2825,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="109"/>
+      <c r="A12" s="103"/>
       <c r="B12" s="90" t="s">
         <v>57</v>
       </c>
@@ -2828,7 +2846,7 @@
       <c r="K12" s="72"/>
       <c r="L12" s="72"/>
       <c r="M12" s="82"/>
-      <c r="O12" s="109"/>
+      <c r="O12" s="103"/>
       <c r="P12" s="90" t="s">
         <v>57</v>
       </c>
@@ -2867,7 +2885,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="109"/>
+      <c r="A13" s="103"/>
       <c r="B13" s="90" t="s">
         <v>58</v>
       </c>
@@ -2888,7 +2906,7 @@
       <c r="K13" s="72"/>
       <c r="L13" s="72"/>
       <c r="M13" s="82"/>
-      <c r="O13" s="109"/>
+      <c r="O13" s="103"/>
       <c r="P13" s="90" t="s">
         <v>58</v>
       </c>
@@ -2927,7 +2945,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="110"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="91" t="s">
         <v>59</v>
       </c>
@@ -2948,7 +2966,7 @@
       <c r="K14" s="83"/>
       <c r="L14" s="83"/>
       <c r="M14" s="84"/>
-      <c r="O14" s="110"/>
+      <c r="O14" s="104"/>
       <c r="P14" s="91" t="s">
         <v>59</v>
       </c>
@@ -2975,7 +2993,7 @@
       <c r="AA14" s="84"/>
     </row>
     <row r="15" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="116" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -3000,7 +3018,7 @@
       <c r="M15" s="89"/>
     </row>
     <row r="16" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="105"/>
+      <c r="A16" s="116"/>
       <c r="B16" s="92" t="s">
         <v>59</v>
       </c>
@@ -3023,7 +3041,7 @@
       <c r="M16" s="89"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="106"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="92" t="s">
         <v>60</v>
       </c>
@@ -3046,7 +3064,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="106"/>
+      <c r="A18" s="117"/>
       <c r="B18" s="92" t="s">
         <v>61</v>
       </c>
@@ -3069,7 +3087,7 @@
       <c r="M18" s="82"/>
     </row>
     <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="106"/>
+      <c r="A19" s="117"/>
       <c r="B19" s="92" t="s">
         <v>62</v>
       </c>
@@ -3092,7 +3110,7 @@
       <c r="M19" s="82"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="106"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="92" t="s">
         <v>63</v>
       </c>
@@ -3115,7 +3133,7 @@
       <c r="M20" s="82"/>
     </row>
     <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="106"/>
+      <c r="A21" s="117"/>
       <c r="B21" s="92" t="s">
         <v>64</v>
       </c>
@@ -3138,7 +3156,7 @@
       <c r="M21" s="82"/>
     </row>
     <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="106"/>
+      <c r="A22" s="117"/>
       <c r="B22" s="92" t="s">
         <v>65</v>
       </c>
@@ -3161,7 +3179,7 @@
       <c r="M22" s="82"/>
     </row>
     <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="106"/>
+      <c r="A23" s="117"/>
       <c r="B23" s="92" t="s">
         <v>66</v>
       </c>
@@ -3184,7 +3202,7 @@
       <c r="M23" s="82"/>
     </row>
     <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="106"/>
+      <c r="A24" s="117"/>
       <c r="B24" s="92" t="s">
         <v>67</v>
       </c>
@@ -3207,7 +3225,7 @@
       <c r="M24" s="82"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="106"/>
+      <c r="A25" s="117"/>
       <c r="B25" s="92" t="s">
         <v>74</v>
       </c>
@@ -3230,7 +3248,7 @@
       <c r="M25" s="82"/>
     </row>
     <row r="26" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="106"/>
+      <c r="A26" s="117"/>
       <c r="B26" s="92" t="s">
         <v>75</v>
       </c>
@@ -3253,7 +3271,7 @@
       <c r="M26" s="82"/>
     </row>
     <row r="27" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="106"/>
+      <c r="A27" s="117"/>
       <c r="B27" s="92" t="s">
         <v>76</v>
       </c>
@@ -3276,7 +3294,7 @@
       <c r="M27" s="82"/>
     </row>
     <row r="28" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="106"/>
+      <c r="A28" s="117"/>
       <c r="B28" s="92" t="s">
         <v>77</v>
       </c>
@@ -3299,7 +3317,7 @@
       <c r="M28" s="82"/>
     </row>
     <row r="29" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="106"/>
+      <c r="A29" s="117"/>
       <c r="B29" s="92" t="s">
         <v>78</v>
       </c>
@@ -3322,7 +3340,7 @@
       <c r="M29" s="82"/>
     </row>
     <row r="30" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="106"/>
+      <c r="A30" s="117"/>
       <c r="B30" s="92" t="s">
         <v>79</v>
       </c>
@@ -3345,7 +3363,7 @@
       <c r="M30" s="82"/>
     </row>
     <row r="31" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="106"/>
+      <c r="A31" s="117"/>
       <c r="B31" s="92" t="s">
         <v>80</v>
       </c>
@@ -3368,7 +3386,7 @@
       <c r="M31" s="82"/>
     </row>
     <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="107"/>
+      <c r="A32" s="118"/>
       <c r="B32" s="92" t="s">
         <v>81</v>
       </c>
@@ -3392,18 +3410,18 @@
     </row>
     <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:11" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B34" s="116" t="s">
+      <c r="B34" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="118"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="112"/>
     </row>
     <row r="35" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="73"/>
@@ -3416,18 +3434,18 @@
       <c r="E35" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="102" t="s">
+      <c r="F35" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="104"/>
-      <c r="H35" s="102" t="s">
+      <c r="G35" s="115"/>
+      <c r="H35" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="104"/>
-      <c r="J35" s="102" t="s">
+      <c r="I35" s="115"/>
+      <c r="J35" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="103"/>
+      <c r="K35" s="114"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="74" t="s">
@@ -3710,7 +3728,16 @@
       <c r="K55" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="A3:A14"/>
     <mergeCell ref="O3:O14"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="B1:M1"/>
@@ -3718,11 +3745,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="A3:A14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DeliverooAgent/report/agent_tests.xlsx
+++ b/DeliverooAgent/report/agent_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucaz\Desktop\ASA\Github\DeliverooAgent\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6D248C-F079-440C-BABB-B6B3BACDE963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0169219-B24B-4E2C-8CEB-142CE683BB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{065E83BE-B1A0-4502-AE30-4FB66E0EBDE0}"/>
   </bookViews>
@@ -1233,6 +1233,42 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1242,47 +1278,11 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2196,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0D301A-73A6-4526-833A-44D4BEDE7EE1}">
   <dimension ref="A1:AA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,20 +2213,20 @@
   <sheetData>
     <row r="1" spans="1:27" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="95"/>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="109"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
     </row>
     <row r="2" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="93"/>
@@ -2239,41 +2239,41 @@
       <c r="E2" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105" t="s">
+      <c r="G2" s="108"/>
+      <c r="H2" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105" t="s">
+      <c r="I2" s="108"/>
+      <c r="J2" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105" t="s">
+      <c r="K2" s="108"/>
+      <c r="L2" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="106"/>
-      <c r="T2" s="105" t="s">
+      <c r="M2" s="117"/>
+      <c r="T2" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105" t="s">
+      <c r="U2" s="108"/>
+      <c r="V2" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105" t="s">
+      <c r="W2" s="108"/>
+      <c r="X2" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105" t="s">
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="106"/>
+      <c r="AA2" s="117"/>
     </row>
     <row r="3" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="114" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="96" t="s">
@@ -2300,11 +2300,19 @@
       <c r="I3" s="100">
         <v>657</v>
       </c>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="101"/>
-      <c r="O3" s="102" t="s">
+      <c r="J3" s="100">
+        <v>2971</v>
+      </c>
+      <c r="K3" s="100">
+        <v>3001</v>
+      </c>
+      <c r="L3" s="100">
+        <v>1076</v>
+      </c>
+      <c r="M3" s="101">
+        <v>983</v>
+      </c>
+      <c r="O3" s="114" t="s">
         <v>45</v>
       </c>
       <c r="P3" s="96" t="s">
@@ -2345,7 +2353,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="103"/>
+      <c r="A4" s="115"/>
       <c r="B4" s="90" t="s">
         <v>49</v>
       </c>
@@ -2358,15 +2366,31 @@
       <c r="E4" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="82"/>
-      <c r="O4" s="103"/>
+      <c r="F4" s="72">
+        <v>370</v>
+      </c>
+      <c r="G4" s="72">
+        <v>270</v>
+      </c>
+      <c r="H4" s="72">
+        <v>645</v>
+      </c>
+      <c r="I4" s="72">
+        <v>724</v>
+      </c>
+      <c r="J4" s="72">
+        <v>2767</v>
+      </c>
+      <c r="K4" s="72">
+        <v>3461</v>
+      </c>
+      <c r="L4" s="72">
+        <v>968</v>
+      </c>
+      <c r="M4" s="82">
+        <v>1058</v>
+      </c>
+      <c r="O4" s="115"/>
       <c r="P4" s="90" t="s">
         <v>49</v>
       </c>
@@ -2405,7 +2429,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="103"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="90" t="s">
         <v>50</v>
       </c>
@@ -2418,15 +2442,31 @@
       <c r="E5" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="82"/>
-      <c r="O5" s="103"/>
+      <c r="F5" s="72">
+        <v>300</v>
+      </c>
+      <c r="G5" s="72">
+        <v>390</v>
+      </c>
+      <c r="H5" s="72">
+        <v>706</v>
+      </c>
+      <c r="I5" s="72">
+        <v>658</v>
+      </c>
+      <c r="J5" s="72">
+        <v>3086</v>
+      </c>
+      <c r="K5" s="72">
+        <v>2683</v>
+      </c>
+      <c r="L5" s="72">
+        <v>765</v>
+      </c>
+      <c r="M5" s="82">
+        <v>873</v>
+      </c>
+      <c r="O5" s="115"/>
       <c r="P5" s="90" t="s">
         <v>50</v>
       </c>
@@ -2465,7 +2505,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="103"/>
+      <c r="A6" s="115"/>
       <c r="B6" s="90" t="s">
         <v>51</v>
       </c>
@@ -2478,15 +2518,31 @@
       <c r="E6" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="82"/>
-      <c r="O6" s="103"/>
+      <c r="F6" s="72">
+        <v>310</v>
+      </c>
+      <c r="G6" s="72">
+        <v>370</v>
+      </c>
+      <c r="H6" s="72">
+        <v>650</v>
+      </c>
+      <c r="I6" s="72">
+        <v>681</v>
+      </c>
+      <c r="J6" s="72">
+        <v>2546</v>
+      </c>
+      <c r="K6" s="72">
+        <v>2345</v>
+      </c>
+      <c r="L6" s="72">
+        <v>1268</v>
+      </c>
+      <c r="M6" s="82">
+        <v>960</v>
+      </c>
+      <c r="O6" s="115"/>
       <c r="P6" s="90" t="s">
         <v>51</v>
       </c>
@@ -2525,7 +2581,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="103"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="90" t="s">
         <v>52</v>
       </c>
@@ -2538,15 +2594,31 @@
       <c r="E7" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="82"/>
-      <c r="O7" s="103"/>
+      <c r="F7" s="72">
+        <v>340</v>
+      </c>
+      <c r="G7" s="72">
+        <v>320</v>
+      </c>
+      <c r="H7" s="72">
+        <v>611</v>
+      </c>
+      <c r="I7" s="72">
+        <v>649</v>
+      </c>
+      <c r="J7" s="72">
+        <v>2754</v>
+      </c>
+      <c r="K7" s="72">
+        <v>2607</v>
+      </c>
+      <c r="L7" s="72">
+        <v>973</v>
+      </c>
+      <c r="M7" s="82">
+        <v>1151</v>
+      </c>
+      <c r="O7" s="115"/>
       <c r="P7" s="90" t="s">
         <v>52</v>
       </c>
@@ -2585,7 +2657,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="103"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="90" t="s">
         <v>53</v>
       </c>
@@ -2598,15 +2670,31 @@
       <c r="E8" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="82"/>
-      <c r="O8" s="103"/>
+      <c r="F8" s="72">
+        <v>490</v>
+      </c>
+      <c r="G8" s="72">
+        <v>460</v>
+      </c>
+      <c r="H8" s="72">
+        <v>800</v>
+      </c>
+      <c r="I8" s="72">
+        <v>625</v>
+      </c>
+      <c r="J8" s="72">
+        <v>3356</v>
+      </c>
+      <c r="K8" s="72">
+        <v>3011</v>
+      </c>
+      <c r="L8" s="72">
+        <v>867</v>
+      </c>
+      <c r="M8" s="82">
+        <v>786</v>
+      </c>
+      <c r="O8" s="115"/>
       <c r="P8" s="90" t="s">
         <v>53</v>
       </c>
@@ -2645,7 +2733,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="103"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="90" t="s">
         <v>54</v>
       </c>
@@ -2658,15 +2746,27 @@
       <c r="E9" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
+      <c r="F9" s="72">
+        <v>400</v>
+      </c>
+      <c r="G9" s="72">
+        <v>330</v>
+      </c>
+      <c r="H9" s="72">
+        <v>561</v>
+      </c>
+      <c r="I9" s="72">
+        <v>514</v>
+      </c>
+      <c r="J9" s="72">
+        <v>3109</v>
+      </c>
+      <c r="K9" s="72">
+        <v>2423</v>
+      </c>
       <c r="L9" s="72"/>
       <c r="M9" s="82"/>
-      <c r="O9" s="103"/>
+      <c r="O9" s="115"/>
       <c r="P9" s="90" t="s">
         <v>54</v>
       </c>
@@ -2705,7 +2805,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="103"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="90" t="s">
         <v>55</v>
       </c>
@@ -2726,7 +2826,7 @@
       <c r="K10" s="72"/>
       <c r="L10" s="72"/>
       <c r="M10" s="82"/>
-      <c r="O10" s="103"/>
+      <c r="O10" s="115"/>
       <c r="P10" s="90" t="s">
         <v>55</v>
       </c>
@@ -2765,7 +2865,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="103"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="90" t="s">
         <v>56</v>
       </c>
@@ -2786,7 +2886,7 @@
       <c r="K11" s="72"/>
       <c r="L11" s="72"/>
       <c r="M11" s="82"/>
-      <c r="O11" s="103"/>
+      <c r="O11" s="115"/>
       <c r="P11" s="90" t="s">
         <v>56</v>
       </c>
@@ -2825,7 +2925,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="103"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="90" t="s">
         <v>57</v>
       </c>
@@ -2846,7 +2946,7 @@
       <c r="K12" s="72"/>
       <c r="L12" s="72"/>
       <c r="M12" s="82"/>
-      <c r="O12" s="103"/>
+      <c r="O12" s="115"/>
       <c r="P12" s="90" t="s">
         <v>57</v>
       </c>
@@ -2885,7 +2985,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="103"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="90" t="s">
         <v>58</v>
       </c>
@@ -2906,7 +3006,7 @@
       <c r="K13" s="72"/>
       <c r="L13" s="72"/>
       <c r="M13" s="82"/>
-      <c r="O13" s="103"/>
+      <c r="O13" s="115"/>
       <c r="P13" s="90" t="s">
         <v>58</v>
       </c>
@@ -2945,7 +3045,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="104"/>
+      <c r="A14" s="116"/>
       <c r="B14" s="91" t="s">
         <v>59</v>
       </c>
@@ -2966,7 +3066,7 @@
       <c r="K14" s="83"/>
       <c r="L14" s="83"/>
       <c r="M14" s="84"/>
-      <c r="O14" s="104"/>
+      <c r="O14" s="116"/>
       <c r="P14" s="91" t="s">
         <v>59</v>
       </c>
@@ -2993,7 +3093,7 @@
       <c r="AA14" s="84"/>
     </row>
     <row r="15" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="111" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -3018,7 +3118,7 @@
       <c r="M15" s="89"/>
     </row>
     <row r="16" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="116"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="92" t="s">
         <v>59</v>
       </c>
@@ -3041,7 +3141,7 @@
       <c r="M16" s="89"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="117"/>
+      <c r="A17" s="112"/>
       <c r="B17" s="92" t="s">
         <v>60</v>
       </c>
@@ -3064,7 +3164,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="117"/>
+      <c r="A18" s="112"/>
       <c r="B18" s="92" t="s">
         <v>61</v>
       </c>
@@ -3087,7 +3187,7 @@
       <c r="M18" s="82"/>
     </row>
     <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="117"/>
+      <c r="A19" s="112"/>
       <c r="B19" s="92" t="s">
         <v>62</v>
       </c>
@@ -3110,7 +3210,7 @@
       <c r="M19" s="82"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="117"/>
+      <c r="A20" s="112"/>
       <c r="B20" s="92" t="s">
         <v>63</v>
       </c>
@@ -3133,7 +3233,7 @@
       <c r="M20" s="82"/>
     </row>
     <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="117"/>
+      <c r="A21" s="112"/>
       <c r="B21" s="92" t="s">
         <v>64</v>
       </c>
@@ -3156,7 +3256,7 @@
       <c r="M21" s="82"/>
     </row>
     <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="117"/>
+      <c r="A22" s="112"/>
       <c r="B22" s="92" t="s">
         <v>65</v>
       </c>
@@ -3179,7 +3279,7 @@
       <c r="M22" s="82"/>
     </row>
     <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="117"/>
+      <c r="A23" s="112"/>
       <c r="B23" s="92" t="s">
         <v>66</v>
       </c>
@@ -3202,7 +3302,7 @@
       <c r="M23" s="82"/>
     </row>
     <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="117"/>
+      <c r="A24" s="112"/>
       <c r="B24" s="92" t="s">
         <v>67</v>
       </c>
@@ -3225,7 +3325,7 @@
       <c r="M24" s="82"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="117"/>
+      <c r="A25" s="112"/>
       <c r="B25" s="92" t="s">
         <v>74</v>
       </c>
@@ -3248,7 +3348,7 @@
       <c r="M25" s="82"/>
     </row>
     <row r="26" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="117"/>
+      <c r="A26" s="112"/>
       <c r="B26" s="92" t="s">
         <v>75</v>
       </c>
@@ -3271,7 +3371,7 @@
       <c r="M26" s="82"/>
     </row>
     <row r="27" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="117"/>
+      <c r="A27" s="112"/>
       <c r="B27" s="92" t="s">
         <v>76</v>
       </c>
@@ -3294,7 +3394,7 @@
       <c r="M27" s="82"/>
     </row>
     <row r="28" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="117"/>
+      <c r="A28" s="112"/>
       <c r="B28" s="92" t="s">
         <v>77</v>
       </c>
@@ -3317,7 +3417,7 @@
       <c r="M28" s="82"/>
     </row>
     <row r="29" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="117"/>
+      <c r="A29" s="112"/>
       <c r="B29" s="92" t="s">
         <v>78</v>
       </c>
@@ -3340,7 +3440,7 @@
       <c r="M29" s="82"/>
     </row>
     <row r="30" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="117"/>
+      <c r="A30" s="112"/>
       <c r="B30" s="92" t="s">
         <v>79</v>
       </c>
@@ -3363,7 +3463,7 @@
       <c r="M30" s="82"/>
     </row>
     <row r="31" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="117"/>
+      <c r="A31" s="112"/>
       <c r="B31" s="92" t="s">
         <v>80</v>
       </c>
@@ -3386,7 +3486,7 @@
       <c r="M31" s="82"/>
     </row>
     <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="118"/>
+      <c r="A32" s="113"/>
       <c r="B32" s="92" t="s">
         <v>81</v>
       </c>
@@ -3410,18 +3510,18 @@
     </row>
     <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:11" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="112"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="107"/>
     </row>
     <row r="35" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="73"/>
@@ -3434,18 +3534,18 @@
       <c r="E35" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="113" t="s">
+      <c r="F35" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="115"/>
-      <c r="H35" s="113" t="s">
+      <c r="G35" s="110"/>
+      <c r="H35" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="115"/>
-      <c r="J35" s="113" t="s">
+      <c r="I35" s="110"/>
+      <c r="J35" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="114"/>
+      <c r="K35" s="118"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="74" t="s">
@@ -3734,12 +3834,12 @@
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="A15:A32"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="O3:O14"/>
-    <mergeCell ref="L2:M2"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B34:K34"/>
     <mergeCell ref="F2:G2"/>
